--- a/Documents/Daily_Scrum.xlsx
+++ b/Documents/Daily_Scrum.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB80974-78EC-499A-84EC-5D27919A09A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80968C-4518-49CF-A241-E81218318A49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Scrum" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Data Analysis</t>
+  </si>
+  <si>
+    <t>Webservice Register, Login</t>
   </si>
 </sst>
 </file>
@@ -260,21 +263,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -292,17 +280,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -315,7 +297,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -324,25 +326,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -440,16 +443,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -735,208 +728,208 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.83984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.41796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.83984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.26171875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.15625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.15625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.26171875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:30" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="7" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="7" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="7" t="s">
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="8"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="31"/>
       <c r="V1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-    </row>
-    <row r="2" spans="1:30" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+    </row>
+    <row r="2" spans="1:30" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="33"/>
+      <c r="B2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="U2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="11">
         <v>43164</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="13"/>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11">
         <v>43165</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
@@ -945,101 +938,101 @@
       <c r="L4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="11">
         <v>43166</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="11">
         <v>43167</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="11">
         <v>43168</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
@@ -1048,19 +1041,19 @@
       <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="S7" t="s">
@@ -1070,119 +1063,119 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="8" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11">
         <v>43171</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P9" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11">
         <v>43172</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11">
         <v>43173</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
@@ -1191,33 +1184,33 @@
       <c r="H11" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11">
         <v>43174</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
@@ -1226,236 +1219,236 @@
       <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P12" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="11">
         <v>43175</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P13" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="R13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+    <row r="14" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="18">
         <v>43178</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="R15" s="10"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="E15" s="20"/>
+      <c r="F15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11">
         <v>43179</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P16" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="Q16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T16" t="s">
         <v>21</v>
       </c>
-      <c r="U16" s="12" t="s">
+      <c r="U16" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11">
         <v>43180</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H17" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K17" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P17" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="R17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T17" t="s">
         <v>21</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="U17" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="11">
         <v>43181</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="10" t="s">
+      <c r="J18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P18" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="10" t="s">
+      <c r="R18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T18" t="s">
         <v>21</v>
       </c>
-      <c r="U18" s="12" t="s">
+      <c r="U18" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="11">
         <v>43182</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
@@ -1464,95 +1457,95 @@
       <c r="H19" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P19" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T19" t="s">
         <v>21</v>
       </c>
-      <c r="U19" s="12" t="s">
+      <c r="U19" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+    <row r="20" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="18">
         <v>43192</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="F21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="18">
         <v>43193</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="F22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11">
         <v>43194</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G23" t="s">
@@ -1561,199 +1554,199 @@
       <c r="H23" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="10" t="s">
+      <c r="J23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P23" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="R23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11">
         <v>43195</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="10" t="s">
+      <c r="J24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P24" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="10" t="s">
+      <c r="R24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="11">
         <v>43196</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H25" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="10" t="s">
+      <c r="J25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P25" t="s">
         <v>21</v>
       </c>
-      <c r="R25" s="10" t="s">
+      <c r="R25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+    <row r="26" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="11">
         <v>43199</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P27" t="s">
         <v>21</v>
       </c>
-      <c r="R27" s="10" t="s">
+      <c r="R27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="11">
         <v>43200</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P28" t="s">
         <v>21</v>
       </c>
-      <c r="R28" s="10" t="s">
+      <c r="R28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="11">
         <v>43201</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G29" t="s">
@@ -1762,7 +1755,7 @@
       <c r="H29" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K29" t="s">
@@ -1771,74 +1764,74 @@
       <c r="L29" t="s">
         <v>27</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P29" t="s">
         <v>21</v>
       </c>
-      <c r="R29" s="10" t="s">
+      <c r="R29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="11">
         <v>43202</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H30" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P30" t="s">
         <v>21</v>
       </c>
-      <c r="R30" s="10" t="s">
+      <c r="R30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="11">
         <v>43203</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H31" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K31" t="s">
@@ -1847,318 +1840,443 @@
       <c r="L31" t="s">
         <v>28</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="N31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P31" t="s">
         <v>21</v>
       </c>
-      <c r="R31" s="10" t="s">
+      <c r="R31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+    <row r="32" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="11">
         <v>43206</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="R33" s="10"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="B33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="11">
         <v>43207</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="R34" s="10"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="B34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="11">
         <v>43208</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="R35" s="10"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>41</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="11">
         <v>43209</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="R36" s="10"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="B36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="11">
         <v>43210</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="R37" s="10"/>
-    </row>
-    <row r="38" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+      <c r="B37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="21"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="11">
         <v>43213</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="R39" s="10"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="F39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="11">
         <v>43214</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="R40" s="10"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+      <c r="F40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="11">
         <v>43215</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="R41" s="10"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="F41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="11">
         <v>43216</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="R42" s="10"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="F42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="11">
         <v>43217</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="R43" s="10"/>
-    </row>
-    <row r="44" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="R45" s="10"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="R46" s="10"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="R47" s="10"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="R48" s="10"/>
-    </row>
-    <row r="49" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="R49" s="10"/>
-    </row>
-    <row r="50" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="R50" s="10"/>
-    </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="R51" s="10"/>
-    </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="R52" s="10"/>
-    </row>
-    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="R53" s="10"/>
-    </row>
-    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="R54" s="10"/>
-    </row>
-    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="R55" s="10"/>
-    </row>
-    <row r="56" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="R56" s="10"/>
-    </row>
-    <row r="57" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="R57" s="10"/>
-    </row>
-    <row r="58" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="R58" s="10"/>
-    </row>
-    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="R59" s="10"/>
-    </row>
-    <row r="60" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="R60" s="10"/>
-    </row>
-    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="R61" s="10"/>
-    </row>
-    <row r="62" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F62" s="10"/>
-      <c r="N62" s="10"/>
-    </row>
-    <row r="63" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F63" s="10"/>
-      <c r="N63" s="10"/>
-    </row>
-    <row r="64" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="N64" s="10"/>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N65" s="10"/>
-    </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N66" s="10"/>
-    </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N67" s="10"/>
+      <c r="F43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="R51" s="5"/>
+    </row>
+    <row r="52" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="R53" s="5"/>
+    </row>
+    <row r="54" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="R54" s="5"/>
+    </row>
+    <row r="55" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="R55" s="5"/>
+    </row>
+    <row r="56" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="R56" s="5"/>
+    </row>
+    <row r="57" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="R57" s="5"/>
+    </row>
+    <row r="58" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="R58" s="5"/>
+    </row>
+    <row r="59" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="R59" s="5"/>
+    </row>
+    <row r="60" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="R60" s="5"/>
+    </row>
+    <row r="61" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="R61" s="5"/>
+    </row>
+    <row r="62" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F62" s="5"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="5"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N67" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A38:XFD38"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A32:XFD32"/>
     <mergeCell ref="V1:AD2"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A14:XFD14"/>
@@ -2168,6 +2286,11 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="A38:XFD38"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A32:XFD32"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B7 B9:B13 B15:B19 B21:B25 B27:B31 B33:B37 B39:B43 B45:B1048576">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
@@ -2177,7 +2300,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7 F9:F13 F15:F19 F21:F25 F27:F31 F33:F37 F39:F43 F45:F63">
+  <conditionalFormatting sqref="F3:F7 F9:F13 F15:F19 F21:F25 F27:F31 F39:F43 F45:F63 F33:F37">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
@@ -2185,7 +2308,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J7 J9:J13 J15:J19 J21:J25 J27:J31 J33:J37 J39:J43 J45">
+  <conditionalFormatting sqref="J3:J7 J9:J13 J15:J19 J21:J25 J27:J31 J39:J43 J45 J33:J37">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
@@ -2193,7 +2316,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N7 N9:N13 N15:N19 N21:N25 N27:N31 N33:N37 N39:N43 N45:N67">
+  <conditionalFormatting sqref="N3:N7 N9:N13 N15:N19 N21:N25 N27:N31 N39:N43 N45:N67 N33:N37">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
@@ -2201,7 +2324,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R7 R9:R13 R15:R19 R21:R25 R27:R31 R33:R37 R39:R43 R45:R61">
+  <conditionalFormatting sqref="R3:R7 R9:R13 R15:R19 R21:R25 R27:R31 R39:R43 R45:R61 R33:R37">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"nein"</formula>
     </cfRule>

--- a/Documents/Daily_Scrum.xlsx
+++ b/Documents/Daily_Scrum.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80968C-4518-49CF-A241-E81218318A49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F17B43-3906-46BB-B656-49EF5609D6DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Scrum" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -345,7 +345,47 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -725,10 +765,10 @@
   <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T37" sqref="T37"/>
+      <selection pane="bottomRight" activeCell="L40" sqref="L40:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2096,28 +2136,106 @@
       <c r="A39" s="11">
         <v>43213</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="R39" s="5"/>
+      <c r="B39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>41</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T39" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11">
         <v>43214</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="R40" s="5"/>
+      <c r="B40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T40" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11">
         <v>43215</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="R41" s="5"/>
+      <c r="B41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>41</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T41" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11">
@@ -2190,80 +2308,84 @@
       <c r="N48" s="5"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F49" s="5"/>
       <c r="N49" s="5"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F50" s="5"/>
       <c r="N50" s="5"/>
       <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="T50" t="e">
+        <f>+T50T50:T52</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="51" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F51" s="5"/>
       <c r="N51" s="5"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F52" s="5"/>
       <c r="N52" s="5"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F53" s="5"/>
       <c r="N53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F54" s="5"/>
       <c r="N54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F55" s="5"/>
       <c r="N55" s="5"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F56" s="5"/>
       <c r="N56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F57" s="5"/>
       <c r="N57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F58" s="5"/>
       <c r="N58" s="5"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F59" s="5"/>
       <c r="N59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F60" s="5"/>
       <c r="N60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F61" s="5"/>
       <c r="N61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="N64" s="5"/>
     </row>
     <row r="65" spans="14:14" x14ac:dyDescent="0.55000000000000004">
@@ -2292,7 +2414,23 @@
     <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A32:XFD32"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B7 B9:B13 B15:B19 B21:B25 B27:B31 B33:B37 B39:B43 B45:B1048576">
+  <conditionalFormatting sqref="B1:B7 B9:B13 B15:B19 B21:B25 B27:B31 B33:B37 B45:B1048576 B39:B43">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"nein"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"ja"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F7 F9:F13 F15:F19 F21:F25 F27:F31 F42:F43 F45:F63 F33:F37">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"nein"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"ja"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J7 J9:J13 J15:J19 J21:J25 J27:J31 J42:J43 J45 J33:J37">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
@@ -2300,7 +2438,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7 F9:F13 F15:F19 F21:F25 F27:F31 F39:F43 F45:F63 F33:F37">
+  <conditionalFormatting sqref="N3:N7 N9:N13 N15:N19 N21:N25 N27:N31 N45:N67 N33:N37 N39:N43">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
@@ -2308,7 +2446,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J7 J9:J13 J15:J19 J21:J25 J27:J31 J39:J43 J45 J33:J37">
+  <conditionalFormatting sqref="R3:R7 R9:R13 R15:R19 R21:R25 R27:R31 R45:R61 R33:R37 R39:R43">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
@@ -2316,7 +2454,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N7 N9:N13 N15:N19 N21:N25 N27:N31 N39:N43 N45:N67 N33:N37">
+  <conditionalFormatting sqref="F39:F41">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
@@ -2324,7 +2462,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R7 R9:R13 R15:R19 R21:R25 R27:R31 R39:R43 R45:R61 R33:R37">
+  <conditionalFormatting sqref="J39:J41">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"nein"</formula>
     </cfRule>

--- a/Documents/Daily_Scrum.xlsx
+++ b/Documents/Daily_Scrum.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F17B43-3906-46BB-B656-49EF5609D6DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FF120E-F40A-4726-B9A7-05643D32687F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Webservice Register, Login</t>
+  </si>
+  <si>
+    <t>Veranstalter App Login und &amp; Registrieren</t>
+  </si>
+  <si>
+    <t>Webservice Events anlegen &amp; updaten</t>
   </si>
 </sst>
 </file>
@@ -302,18 +308,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -325,6 +319,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,6 +340,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,10 +771,10 @@
   <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L40" sqref="L40:L41"/>
+      <selection pane="bottomRight" activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -797,53 +803,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="29" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="29" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="29" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="25" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
     </row>
     <row r="2" spans="1:30" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="33"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="13" t="s">
         <v>39</v>
       </c>
@@ -904,15 +910,15 @@
       <c r="U2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11">
@@ -1103,37 +1109,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
+    <row r="8" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11">
@@ -1313,37 +1319,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
+    <row r="14" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="18">
@@ -1522,37 +1528,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
+    <row r="20" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="18">
@@ -1671,37 +1677,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
+    <row r="26" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11">
@@ -1893,37 +1899,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
+    <row r="32" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11">
@@ -2100,37 +2106,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
+    <row r="38" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11">
@@ -2241,151 +2247,288 @@
       <c r="A42" s="11">
         <v>43216</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="R42" s="5"/>
+      <c r="B42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T42" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11">
         <v>43217</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
+      <c r="B43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="F45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="R45" s="5"/>
+      <c r="A45" s="11">
+        <v>43222</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P45" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T45" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="F46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="R46" s="5"/>
+      <c r="A46" s="11">
+        <v>43223</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T46" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="F47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="R47" s="5"/>
+      <c r="A47" s="11">
+        <v>43224</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P47" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T47" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F48" s="5"/>
       <c r="N48" s="5"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F49" s="5"/>
       <c r="N49" s="5"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F50" s="5"/>
       <c r="N50" s="5"/>
       <c r="R50" s="5"/>
-      <c r="T50" t="e">
-        <f>+T50T50:T52</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="51" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="51" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F51" s="5"/>
       <c r="N51" s="5"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F52" s="5"/>
       <c r="N52" s="5"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F53" s="5"/>
       <c r="N53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F54" s="5"/>
       <c r="N54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F55" s="5"/>
       <c r="N55" s="5"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F56" s="5"/>
       <c r="N56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F57" s="5"/>
       <c r="N57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F58" s="5"/>
       <c r="N58" s="5"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F59" s="5"/>
       <c r="N59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F60" s="5"/>
       <c r="N60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F61" s="5"/>
       <c r="N61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="6:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="6:18" x14ac:dyDescent="0.55000000000000004">
       <c r="N64" s="5"/>
     </row>
     <row r="65" spans="14:14" x14ac:dyDescent="0.55000000000000004">
@@ -2399,6 +2542,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A38:XFD38"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A32:XFD32"/>
     <mergeCell ref="V1:AD2"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A14:XFD14"/>
@@ -2408,11 +2556,6 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="A38:XFD38"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A32:XFD32"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B7 B9:B13 B15:B19 B21:B25 B27:B31 B33:B37 B45:B1048576 B39:B43">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
@@ -2430,7 +2573,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J7 J9:J13 J15:J19 J21:J25 J27:J31 J42:J43 J45 J33:J37">
+  <conditionalFormatting sqref="J3:J7 J9:J13 J15:J19 J21:J25 J27:J31 J42:J43 J33:J37 J45:J47">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
@@ -2438,7 +2581,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N7 N9:N13 N15:N19 N21:N25 N27:N31 N45:N67 N33:N37 N39:N43">
+  <conditionalFormatting sqref="N3:N7 N9:N13 N15:N19 N21:N25 N27:N31 N33:N37 N39:N43 N45:N67">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"nein"</formula>
     </cfRule>

--- a/Documents/Daily_Scrum.xlsx
+++ b/Documents/Daily_Scrum.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FF120E-F40A-4726-B9A7-05643D32687F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEE0B52-E559-4B02-951E-BB7CB382126D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>Webservice Events anlegen &amp; updaten</t>
+  </si>
+  <si>
+    <t>GUI von Fragments auf Activities umstellen</t>
+  </si>
+  <si>
+    <t>Webservice Event verwaltung</t>
+  </si>
+  <si>
+    <t>Verbindung Webservice und GUI</t>
   </si>
 </sst>
 </file>
@@ -264,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -346,6 +355,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,10 +783,10 @@
   <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T47" sqref="T47"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2455,80 +2467,170 @@
       <c r="N48" s="5"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="6:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="6:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="11">
+        <v>43227</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" t="s">
+        <v>44</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="11">
+        <v>43228</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>45</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P50" t="s">
+        <v>44</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="11">
+        <v>43229</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P51" t="s">
+        <v>44</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F52" s="5"/>
       <c r="N52" s="5"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F53" s="5"/>
       <c r="N53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F54" s="5"/>
       <c r="N54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F55" s="5"/>
       <c r="N55" s="5"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F56" s="5"/>
       <c r="N56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F57" s="5"/>
       <c r="N57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F58" s="5"/>
       <c r="N58" s="5"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F59" s="5"/>
       <c r="N59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F60" s="5"/>
       <c r="N60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F61" s="5"/>
       <c r="N61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="N64" s="5"/>
     </row>
     <row r="65" spans="14:14" x14ac:dyDescent="0.55000000000000004">
@@ -2557,7 +2659,7 @@
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B7 B9:B13 B15:B19 B21:B25 B27:B31 B33:B37 B45:B1048576 B39:B43">
+  <conditionalFormatting sqref="B1:B7 B9:B13 B15:B19 B21:B25 B27:B31 B33:B37 B39:B43 B45:B1048576">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
@@ -2565,7 +2667,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7 F9:F13 F15:F19 F21:F25 F27:F31 F42:F43 F45:F63 F33:F37">
+  <conditionalFormatting sqref="F3:F7 F9:F13 F15:F19 F21:F25 F27:F31 F42:F43 F33:F37 F45:F63">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
@@ -2573,7 +2675,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J7 J9:J13 J15:J19 J21:J25 J27:J31 J42:J43 J33:J37 J45:J47">
+  <conditionalFormatting sqref="J3:J7 J9:J13 J15:J19 J21:J25 J27:J31 J42:J43 J33:J37 J45:J47 J49:J51">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
@@ -2589,7 +2691,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R7 R9:R13 R15:R19 R21:R25 R27:R31 R45:R61 R33:R37 R39:R43">
+  <conditionalFormatting sqref="R3:R7 R9:R13 R15:R19 R21:R25 R27:R31 R33:R37 R39:R43 R45:R61">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"nein"</formula>
     </cfRule>

--- a/Documents/Daily_Scrum.xlsx
+++ b/Documents/Daily_Scrum.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEE0B52-E559-4B02-951E-BB7CB382126D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C486CE-9460-4E9F-A51D-1614E1F41A6F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -161,13 +161,37 @@
   </si>
   <si>
     <t>Verbindung Webservice und GUI</t>
+  </si>
+  <si>
+    <t>Datenbank und Webservice verbinden Recherche</t>
+  </si>
+  <si>
+    <t>Datenbank und Webservice verbinden Register &amp; Login</t>
+  </si>
+  <si>
+    <t>GUI Designen</t>
+  </si>
+  <si>
+    <t>GUI Slidermenü</t>
+  </si>
+  <si>
+    <t>GUI Login &amp; Register</t>
+  </si>
+  <si>
+    <t>GUI Recherche Fragments</t>
+  </si>
+  <si>
+    <t>GUI Fragments ausprogrammieren</t>
+  </si>
+  <si>
+    <t>GUI Grobstrukturen in den einzelnen Fragments erstellen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,9 +214,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <color theme="2" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -273,11 +304,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -312,11 +342,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,12 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,20 +384,330 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF009900"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9799"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF009900"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF009900"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -506,6 +850,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFABAD"/>
+      <color rgb="FFFF9799"/>
+      <color rgb="FF009900"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -780,188 +1132,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AD114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D49" sqref="D49:D51"/>
+      <selection pane="bottomRight" activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.578125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.26171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.68359375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.68359375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.68359375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.68359375" customWidth="1"/>
+    <col min="9" max="9" width="9.68359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.9453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.83984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="39.41796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.68359375" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.26171875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.83984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.26171875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.26171875" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.15625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="29.15625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.26171875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.26171875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="27" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="27" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="27" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="27" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="21" t="s">
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-    </row>
-    <row r="2" spans="1:30" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="31"/>
-      <c r="B2" s="13" t="s">
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+    </row>
+    <row r="2" spans="1:30" s="14" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="30"/>
+      <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>43164</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T3" t="s">
@@ -969,25 +1321,25 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>43165</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
@@ -996,13 +1348,13 @@
       <c r="L4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T4" t="s">
@@ -1010,35 +1362,35 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>43166</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T5" t="s">
@@ -1046,34 +1398,34 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>43167</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T6" t="s">
@@ -1081,16 +1433,16 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>43168</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
@@ -1099,141 +1451,141 @@
       <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="5" t="s">
+      <c r="N7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="S7" t="s">
         <v>22</v>
       </c>
       <c r="T7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>43171</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T9" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>43172</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T10" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>43173</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
@@ -1242,33 +1594,33 @@
       <c r="H11" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T11" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>43174</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
@@ -1277,236 +1629,231 @@
       <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T12" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>43175</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+    </row>
+    <row r="15" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="33">
         <v>43178</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="37"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="37"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="37"/>
+      <c r="U15" s="39"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>43179</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T16" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>43180</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H17" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K17" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T17" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>43181</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="5" t="s">
+      <c r="J18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T18" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>43182</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
@@ -1515,95 +1862,106 @@
       <c r="H19" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T19" t="s">
-        <v>21</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+    </row>
+    <row r="21" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="33">
         <v>43192</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="18">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="37"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="37"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="37"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="37"/>
+      <c r="U21" s="39"/>
+    </row>
+    <row r="22" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="33">
         <v>43193</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="37"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="37"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="37"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="37"/>
+      <c r="U22" s="39"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>43194</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G23" t="s">
@@ -1612,16 +1970,16 @@
       <c r="H23" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="5" t="s">
+      <c r="J23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P23" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T23" t="s">
@@ -1629,28 +1987,28 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>43195</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="5" t="s">
+      <c r="J24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T24" t="s">
@@ -1658,98 +2016,98 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>43196</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H25" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="5" t="s">
+      <c r="J25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
+    <row r="26" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>43199</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T27" t="s">
@@ -1757,34 +2115,34 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>43200</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T28" t="s">
@@ -1792,28 +2150,28 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>43201</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K29" t="s">
@@ -1822,13 +2180,13 @@
       <c r="L29" t="s">
         <v>27</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>21</v>
-      </c>
-      <c r="R29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T29" t="s">
@@ -1836,34 +2194,34 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>43202</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T30" t="s">
@@ -1871,25 +2229,25 @@
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>43203</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K31" t="s">
@@ -1898,80 +2256,80 @@
       <c r="L31" t="s">
         <v>28</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
+    <row r="32" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>43206</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="s">
         <v>41</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T33" t="s">
@@ -1979,34 +2337,34 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>43207</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="s">
         <v>41</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T34" t="s">
@@ -2014,34 +2372,34 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>43208</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="s">
         <v>41</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P35" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T35" t="s">
@@ -2049,34 +2407,34 @@
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>43209</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="s">
         <v>41</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T36" t="s">
@@ -2084,101 +2442,70 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>43210</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="s">
         <v>41</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P37" t="s">
-        <v>21</v>
-      </c>
-      <c r="R37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-    </row>
+    <row r="38" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>43213</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D39" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H39" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="s">
         <v>41</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P39" t="s">
         <v>21</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="R39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T39" t="s">
@@ -2186,34 +2513,34 @@
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>43214</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D40" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H40" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="s">
         <v>41</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P40" t="s">
         <v>21</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="R40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T40" t="s">
@@ -2221,34 +2548,34 @@
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>43215</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H41" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="s">
         <v>41</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P41" t="s">
         <v>21</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="R41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T41" t="s">
@@ -2256,34 +2583,34 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>43216</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H42" t="s">
         <v>38</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="s">
         <v>43</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P42" t="s">
         <v>21</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="R42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T42" t="s">
@@ -2291,171 +2618,120 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>43217</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D43" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H43" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="s">
         <v>43</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P43" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="5" t="s">
+      <c r="R43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="11">
+    <row r="44" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="42">
+        <v>43250</v>
+      </c>
+      <c r="B45" s="40"/>
+      <c r="C45" s="41"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="37"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="37"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="37"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="37"/>
+      <c r="U45" s="43"/>
+    </row>
+    <row r="46" spans="1:30" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="44">
+        <v>43221</v>
+      </c>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="46"/>
+      <c r="AA46" s="46"/>
+      <c r="AB46" s="46"/>
+      <c r="AC46" s="46"/>
+      <c r="AD46" s="46"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="10">
         <v>43222</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" t="s">
-        <v>43</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P45" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="11">
-        <v>43223</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" t="s">
-        <v>43</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P46" t="s">
-        <v>21</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="11">
-        <v>43224</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D47" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H47" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="s">
         <v>43</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P47" t="s">
         <v>21</v>
       </c>
-      <c r="R47" s="5" t="s">
+      <c r="R47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T47" t="s">
@@ -2463,192 +2739,622 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="F48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="11">
+      <c r="A48" s="10">
+        <v>43223</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="10">
+        <v>43224</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="10">
         <v>43227</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" t="s">
-        <v>46</v>
-      </c>
-      <c r="J49" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" t="s">
-        <v>45</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P49" t="s">
-        <v>44</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="11">
-        <v>43228</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" t="s">
-        <v>46</v>
-      </c>
-      <c r="J50" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" t="s">
-        <v>45</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P50" t="s">
-        <v>44</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="11">
-        <v>43229</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D51" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H51" t="s">
         <v>46</v>
       </c>
-      <c r="J51" s="34" t="s">
+      <c r="J51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="s">
         <v>45</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P51" t="s">
         <v>44</v>
       </c>
-      <c r="R51" s="5" t="s">
+      <c r="R51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T51" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="10">
+        <v>43228</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" t="s">
+        <v>45</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P52" t="s">
+        <v>44</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="10">
+        <v>43229</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="44">
+        <v>43230</v>
+      </c>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="46"/>
+      <c r="AB54" s="46"/>
+      <c r="AC54" s="46"/>
+      <c r="AD54" s="46"/>
+    </row>
+    <row r="55" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="44">
+        <v>43231</v>
+      </c>
+      <c r="B55" s="40"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="37"/>
+      <c r="I55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="37"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="37"/>
+      <c r="U55" s="39"/>
+    </row>
+    <row r="56" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="18"/>
+      <c r="AB56" s="18"/>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="18"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="10">
+        <v>43234</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="10">
+        <v>43235</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="N58" s="4"/>
+      <c r="R58" s="4"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="10">
+        <v>43236</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="R59" s="4"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="10">
+        <v>43237</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="N60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="10">
+        <v>43238</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F62" s="5"/>
-      <c r="N62" s="5"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="N61" s="4"/>
+      <c r="R61" s="4"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="10"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="10">
+        <v>43241</v>
+      </c>
+      <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="N63" s="5"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="N64" s="5"/>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="N65" s="5"/>
-    </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="N66" s="5"/>
-    </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="N67" s="5"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="10">
+        <v>43242</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="10">
+        <v>43243</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="10">
+        <v>43244</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="10">
+        <v>43245</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="10"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="10">
+        <v>43248</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="10">
+        <v>43249</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="10">
+        <v>43250</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="10">
+        <v>43251</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="10">
+        <v>43252</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="4"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="4"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A38:XFD38"/>
+  <mergeCells count="16">
     <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="A50:XFD50"/>
+    <mergeCell ref="A56:XFD56"/>
     <mergeCell ref="V1:AD2"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A14:XFD14"/>
@@ -2658,60 +3364,16 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="A38:XFD38"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A32:XFD32"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B7 B9:B13 B15:B19 B21:B25 B27:B31 B33:B37 B39:B43 B45:B1048576">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+  <conditionalFormatting sqref="B1:B55 F1:F55 J1:J55 N1:N55 R1:R55 R57:R1048576 N57:N1048576 J57:J1048576 F57:F1048576 B57:B1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>"ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7 F9:F13 F15:F19 F21:F25 F27:F31 F42:F43 F33:F37 F45:F63">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J7 J9:J13 J15:J19 J21:J25 J27:J31 J42:J43 J33:J37 J45:J47 J49:J51">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N7 N9:N13 N15:N19 N21:N25 N27:N31 N33:N37 N39:N43 N45:N67">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R7 R9:R13 R15:R19 R21:R25 R27:R31 R33:R37 R39:R43 R45:R61">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F41">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:J41">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/Daily_Scrum.xlsx
+++ b/Documents/Daily_Scrum.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C486CE-9460-4E9F-A51D-1614E1F41A6F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B51BF0-0A35-49DA-92BF-AEAEACD86931}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="66">
   <si>
     <t>Datum</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Anw.</t>
   </si>
   <si>
-    <t>Data Analysis</t>
-  </si>
-  <si>
     <t>Webservice Register, Login</t>
   </si>
   <si>
@@ -185,6 +182,42 @@
   </si>
   <si>
     <t>GUI Grobstrukturen in den einzelnen Fragments erstellen</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Veranstalter App Login &amp; Register</t>
+  </si>
+  <si>
+    <t>Veranstalter App Login &amp; Registrieren</t>
+  </si>
+  <si>
+    <t>Qualtitätsverbesserung des Codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glassfish wollte nicht mehr laufen </t>
+  </si>
+  <si>
+    <t>Glassfish neu Herunterladen</t>
+  </si>
+  <si>
+    <t>Emails zum Registrieren verschicken</t>
+  </si>
+  <si>
+    <t>Tabellen durch Textboxen ersetzen</t>
+  </si>
+  <si>
+    <t>geladene Daten in Gui einfügen</t>
+  </si>
+  <si>
+    <t>App abgestürzt</t>
+  </si>
+  <si>
+    <t>Problem: bei der Übergabe der Parameter zur DB</t>
+  </si>
+  <si>
+    <t>Teilnehmer App: Verbessern ListView Layout</t>
   </si>
 </sst>
 </file>
@@ -243,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -300,11 +333,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -345,45 +387,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -418,32 +421,66 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF009900"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9799"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <strike val="0"/>
@@ -462,389 +499,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF009900"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1132,13 +786,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD114"/>
+  <dimension ref="A1:AD308"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T28" sqref="T28"/>
+      <selection pane="bottomRight" activeCell="W74" sqref="W74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1167,53 +821,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="26" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="26" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="26" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="26" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
     </row>
     <row r="2" spans="1:30" s="14" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="30"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
@@ -1274,15 +928,15 @@
       <c r="U2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="24"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10">
@@ -1319,6 +973,10 @@
       <c r="T3" t="s">
         <v>10</v>
       </c>
+      <c r="W3" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="51"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10">
@@ -1360,6 +1018,8 @@
       <c r="T4" t="s">
         <v>10</v>
       </c>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10">
@@ -1396,6 +1056,8 @@
       <c r="T5" t="s">
         <v>10</v>
       </c>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10">
@@ -1431,6 +1093,10 @@
       <c r="T6" t="s">
         <v>10</v>
       </c>
+      <c r="W6" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="52"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10">
@@ -1472,38 +1138,40 @@
       <c r="T7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+    </row>
+    <row r="8" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10">
@@ -1531,14 +1199,18 @@
         <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="W9" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" s="52"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10">
@@ -1569,8 +1241,10 @@
         <v>24</v>
       </c>
       <c r="T10" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10">
@@ -1607,8 +1281,10 @@
         <v>24</v>
       </c>
       <c r="T11" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10">
@@ -1639,14 +1315,16 @@
         <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T12" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10">
@@ -1674,63 +1352,65 @@
         <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-    </row>
-    <row r="15" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="33">
+        <v>48</v>
+      </c>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+    </row>
+    <row r="14" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+    </row>
+    <row r="15" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="20">
         <v>43178</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="37"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="37"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="37"/>
-      <c r="U15" s="39"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="24"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="24"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="24"/>
+      <c r="U15" s="26"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10">
@@ -1758,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>29</v>
@@ -1767,8 +1447,12 @@
         <v>24</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="W16" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="52"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10">
@@ -1796,7 +1480,7 @@
         <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>29</v>
@@ -1805,8 +1489,10 @@
         <v>24</v>
       </c>
       <c r="T17" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10">
@@ -1831,7 +1517,7 @@
         <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>29</v>
@@ -1840,8 +1526,12 @@
         <v>24</v>
       </c>
       <c r="T18" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="W18" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="52"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10">
@@ -1872,7 +1562,7 @@
         <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>29</v>
@@ -1881,72 +1571,74 @@
         <v>24</v>
       </c>
       <c r="T19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-    </row>
-    <row r="21" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="33">
+        <v>50</v>
+      </c>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+    </row>
+    <row r="20" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+    </row>
+    <row r="21" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="20">
         <v>43192</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="37"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="37"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="37"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="37"/>
-      <c r="U21" s="39"/>
-    </row>
-    <row r="22" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="24"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="24"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="24"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="24"/>
+      <c r="U21" s="26"/>
+    </row>
+    <row r="22" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="20">
         <v>43193</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="37"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="37"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="37"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="37"/>
-      <c r="U22" s="39"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="24"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="24"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="24"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="24"/>
+      <c r="U22" s="26"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10">
@@ -1977,7 +1669,7 @@
         <v>24</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>24</v>
@@ -1985,6 +1677,10 @@
       <c r="T23" t="s">
         <v>21</v>
       </c>
+      <c r="W23" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="52"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10">
@@ -2006,7 +1702,7 @@
         <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R24" s="4" t="s">
         <v>24</v>
@@ -2014,6 +1710,8 @@
       <c r="T24" t="s">
         <v>21</v>
       </c>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10">
@@ -2038,7 +1736,7 @@
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>24</v>
@@ -2046,38 +1744,40 @@
       <c r="T25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+    </row>
+    <row r="26" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10">
@@ -2105,7 +1805,7 @@
         <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>24</v>
@@ -2113,6 +1813,10 @@
       <c r="T27" t="s">
         <v>21</v>
       </c>
+      <c r="W27" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="52"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10">
@@ -2140,7 +1844,7 @@
         <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R28" s="4" t="s">
         <v>24</v>
@@ -2148,6 +1852,8 @@
       <c r="T28" t="s">
         <v>21</v>
       </c>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10">
@@ -2169,7 +1875,7 @@
         <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>24</v>
@@ -2184,7 +1890,7 @@
         <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>24</v>
@@ -2192,6 +1898,8 @@
       <c r="T29" t="s">
         <v>21</v>
       </c>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10">
@@ -2207,7 +1915,7 @@
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>24</v>
@@ -2219,7 +1927,7 @@
         <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R30" s="4" t="s">
         <v>24</v>
@@ -2227,6 +1935,8 @@
       <c r="T30" t="s">
         <v>21</v>
       </c>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10">
@@ -2245,7 +1955,7 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>24</v>
@@ -2260,7 +1970,7 @@
         <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R31" s="4" t="s">
         <v>24</v>
@@ -2268,38 +1978,40 @@
       <c r="T31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+    </row>
+    <row r="32" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="38"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10">
@@ -2315,19 +2027,19 @@
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R33" s="4" t="s">
         <v>24</v>
@@ -2335,6 +2047,10 @@
       <c r="T33" t="s">
         <v>21</v>
       </c>
+      <c r="W33" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="52"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10">
@@ -2350,19 +2066,19 @@
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R34" s="4" t="s">
         <v>24</v>
@@ -2370,6 +2086,8 @@
       <c r="T34" t="s">
         <v>21</v>
       </c>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10">
@@ -2385,19 +2103,19 @@
         <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>24</v>
@@ -2405,6 +2123,10 @@
       <c r="T35" t="s">
         <v>21</v>
       </c>
+      <c r="W35" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="X35" s="52"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10">
@@ -2420,19 +2142,19 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>24</v>
@@ -2440,6 +2162,8 @@
       <c r="T36" t="s">
         <v>21</v>
       </c>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10">
@@ -2455,19 +2179,19 @@
         <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>24</v>
@@ -2475,8 +2199,10 @@
       <c r="T37" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+    </row>
+    <row r="38" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10">
         <v>43213</v>
@@ -2497,7 +2223,7 @@
         <v>24</v>
       </c>
       <c r="L39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>24</v>
@@ -2511,6 +2237,10 @@
       <c r="T39" t="s">
         <v>21</v>
       </c>
+      <c r="W39" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="X39" s="52"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10">
@@ -2532,7 +2262,7 @@
         <v>24</v>
       </c>
       <c r="L40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>24</v>
@@ -2546,6 +2276,8 @@
       <c r="T40" t="s">
         <v>21</v>
       </c>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10">
@@ -2567,7 +2299,7 @@
         <v>24</v>
       </c>
       <c r="L41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>24</v>
@@ -2581,6 +2313,8 @@
       <c r="T41" t="s">
         <v>21</v>
       </c>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10">
@@ -2590,7 +2324,7 @@
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>24</v>
@@ -2602,7 +2336,7 @@
         <v>24</v>
       </c>
       <c r="L42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>24</v>
@@ -2616,6 +2350,8 @@
       <c r="T42" t="s">
         <v>21</v>
       </c>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10">
@@ -2625,7 +2361,7 @@
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>24</v>
@@ -2637,7 +2373,7 @@
         <v>24</v>
       </c>
       <c r="L43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>24</v>
@@ -2651,57 +2387,59 @@
       <c r="T43" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="45" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="42">
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+    </row>
+    <row r="44" spans="1:30" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="29">
         <v>43250</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="41"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="37"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="37"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="37"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="37"/>
-      <c r="U45" s="43"/>
-    </row>
-    <row r="46" spans="1:30" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="44">
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="24"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="24"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="24"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="24"/>
+      <c r="U45" s="30"/>
+    </row>
+    <row r="46" spans="1:30" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="31">
         <v>43221</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="46"/>
-      <c r="Z46" s="46"/>
-      <c r="AA46" s="46"/>
-      <c r="AB46" s="46"/>
-      <c r="AC46" s="46"/>
-      <c r="AD46" s="46"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="33"/>
+      <c r="AC46" s="33"/>
+      <c r="AD46" s="33"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10">
@@ -2711,7 +2449,7 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>24</v>
@@ -2723,7 +2461,7 @@
         <v>24</v>
       </c>
       <c r="L47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>24</v>
@@ -2737,6 +2475,10 @@
       <c r="T47" t="s">
         <v>21</v>
       </c>
+      <c r="W47" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="X47" s="52"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10">
@@ -2746,7 +2488,7 @@
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>24</v>
@@ -2758,7 +2500,7 @@
         <v>24</v>
       </c>
       <c r="L48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>24</v>
@@ -2772,6 +2514,8 @@
       <c r="T48" t="s">
         <v>21</v>
       </c>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10">
@@ -2781,7 +2525,7 @@
         <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>24</v>
@@ -2793,7 +2537,7 @@
         <v>24</v>
       </c>
       <c r="L49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>24</v>
@@ -2807,38 +2551,40 @@
       <c r="T49" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
-      <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
-      <c r="AD50" s="20"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+    </row>
+    <row r="50" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="36"/>
+      <c r="Z50" s="36"/>
+      <c r="AA50" s="36"/>
+      <c r="AB50" s="36"/>
+      <c r="AC50" s="36"/>
+      <c r="AD50" s="36"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10">
@@ -2848,32 +2594,36 @@
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T51" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="W51" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="X51" s="52"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10">
@@ -2883,32 +2633,34 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J52" s="17" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T52" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10">
@@ -2918,115 +2670,117 @@
         <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="31"/>
+        <v>45</v>
+      </c>
+      <c r="E53" s="18"/>
       <c r="F53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="T53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="44">
+        <v>43</v>
+      </c>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+    </row>
+    <row r="54" spans="1:30" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="31">
         <v>43230</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="46"/>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="46"/>
-      <c r="AA54" s="46"/>
-      <c r="AB54" s="46"/>
-      <c r="AC54" s="46"/>
-      <c r="AD54" s="46"/>
-    </row>
-    <row r="55" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="44">
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+      <c r="AC54" s="33"/>
+      <c r="AD54" s="33"/>
+    </row>
+    <row r="55" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="31">
         <v>43231</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="37"/>
-      <c r="I55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="37"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="37"/>
-      <c r="U55" s="39"/>
-    </row>
-    <row r="56" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="18"/>
-      <c r="AB56" s="18"/>
-      <c r="AC56" s="18"/>
-      <c r="AD56" s="18"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="24"/>
+      <c r="I55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="24"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="24"/>
+      <c r="U55" s="26"/>
+    </row>
+    <row r="56" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="38"/>
+      <c r="AC56" s="38"/>
+      <c r="AD56" s="38"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10">
@@ -3035,327 +2789,1120 @@
       <c r="B57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="D57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="18"/>
       <c r="F57" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="32" t="s">
-        <v>24</v>
+      <c r="H57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" t="s">
+        <v>60</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="P57" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="R57" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="T57" t="s">
+        <v>65</v>
+      </c>
+      <c r="W57" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="X57" s="52"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10">
         <v>43235</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="N58" s="4"/>
-      <c r="R58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" t="s">
+        <v>60</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P58" t="s">
+        <v>61</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T58" t="s">
+        <v>65</v>
+      </c>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10">
         <v>43236</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="R59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="53"/>
+      <c r="F59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" t="s">
+        <v>59</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P59" t="s">
+        <v>62</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T59" t="s">
+        <v>65</v>
+      </c>
+      <c r="W59" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="52"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10">
         <v>43237</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="5"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="18"/>
       <c r="F60" s="5"/>
       <c r="N60" s="4"/>
       <c r="R60" s="4"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10">
         <v>43238</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="E61" s="5"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="18"/>
       <c r="F61" s="5"/>
       <c r="N61" s="4"/>
       <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="10"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="N62" s="4"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="10">
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+    </row>
+    <row r="62" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="36"/>
+      <c r="AA62" s="36"/>
+      <c r="AB62" s="36"/>
+      <c r="AC62" s="36"/>
+      <c r="AD62" s="36"/>
+    </row>
+    <row r="63" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="29">
         <v>43241</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="N63" s="4"/>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="10">
+    </row>
+    <row r="64" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="29">
         <v>43242</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="N64" s="4"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10">
         <v>43243</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="18"/>
       <c r="F65" s="5"/>
       <c r="N65" s="4"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="W65" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="X65" s="52"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10">
         <v>43244</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="53"/>
       <c r="F66" s="4"/>
       <c r="N66" s="4"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="W66" s="52"/>
+      <c r="X66" s="52"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10">
         <v>43245</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="18"/>
       <c r="F67" s="5"/>
       <c r="N67" s="4"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="10"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="W67" s="52"/>
+      <c r="X67" s="52"/>
+    </row>
+    <row r="68" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10">
         <v>43248</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="53"/>
       <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="W69" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="X69" s="52"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10">
         <v>43249</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="18"/>
       <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="W70" s="52"/>
+      <c r="X70" s="52"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10">
         <v>43250</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="E71" s="5"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="18"/>
       <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="W71" s="52"/>
+      <c r="X71" s="52"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10">
         <v>43251</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="18"/>
       <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="W72" s="52"/>
+      <c r="X72" s="52"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10">
         <v>43252</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="53"/>
       <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E74" s="5"/>
+      <c r="W73" s="52"/>
+      <c r="X73" s="52"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" s="54"/>
+      <c r="E74" s="18"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="4"/>
-      <c r="E75" s="5"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="18"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E76" s="5"/>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" s="54"/>
+      <c r="E76" s="18"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E77" s="4"/>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" s="54"/>
+      <c r="E77" s="53"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E78" s="5"/>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" s="54"/>
+      <c r="E78" s="18"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="4"/>
-      <c r="E79" s="5"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="18"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E80" s="5"/>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" s="54"/>
+      <c r="E80" s="18"/>
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E81" s="4"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="53"/>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E82" s="5"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="18"/>
       <c r="F82" s="5"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="4"/>
-      <c r="E83" s="5"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="18"/>
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E84" s="5"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="18"/>
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E85" s="4"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="53"/>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E86" s="5"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="18"/>
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="4"/>
-      <c r="E87" s="5"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="18"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E88" s="5"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="18"/>
       <c r="F88" s="5"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E89" s="4"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="53"/>
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E90" s="5"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="18"/>
       <c r="F90" s="5"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="4"/>
-      <c r="E91" s="5"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="18"/>
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E92" s="5"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="18"/>
       <c r="F92" s="5"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E93" s="4"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="53"/>
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E94" s="5"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="18"/>
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="4"/>
-      <c r="E95" s="5"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="18"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E96" s="5"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="18"/>
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E97" s="4"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="53"/>
       <c r="F97" s="4"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E98" s="5"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="18"/>
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="4"/>
-      <c r="E99" s="5"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="18"/>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E100" s="5"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="18"/>
       <c r="F100" s="5"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E101" s="4"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="53"/>
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E102" s="5"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="18"/>
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="4"/>
-      <c r="E103" s="5"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="18"/>
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E104" s="5"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="18"/>
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E105" s="4"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="53"/>
       <c r="F105" s="4"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E106" s="5"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="18"/>
       <c r="F106" s="5"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E107" s="5"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="18"/>
       <c r="F107" s="5"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E108" s="5"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="18"/>
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E109" s="4"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="53"/>
       <c r="F109" s="4"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E110" s="5"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="18"/>
       <c r="F110" s="5"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E111" s="5"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="18"/>
       <c r="F111" s="5"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E112" s="5"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="18"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E113" s="4"/>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D113" s="54"/>
+      <c r="E113" s="53"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E114" s="5"/>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D114" s="54"/>
+      <c r="E114" s="18"/>
       <c r="F114" s="5"/>
     </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115" s="54"/>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D116" s="54"/>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D117" s="54"/>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D118" s="54"/>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D119" s="54"/>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D120" s="54"/>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D121" s="54"/>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D122" s="54"/>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D123" s="54"/>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D124" s="54"/>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D125" s="54"/>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D126" s="54"/>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D127" s="54"/>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D128" s="54"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D129" s="54"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D130" s="54"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D131" s="54"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D132" s="54"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D133" s="54"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D134" s="54"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D135" s="54"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D136" s="54"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D137" s="54"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D138" s="54"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D139" s="54"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D140" s="54"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D141" s="54"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D142" s="54"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D143" s="54"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D144" s="54"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D145" s="54"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D146" s="54"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D147" s="54"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D148" s="54"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D149" s="54"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D150" s="54"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D151" s="54"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D152" s="54"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D153" s="54"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D154" s="54"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D155" s="54"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D156" s="54"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D157" s="54"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D158" s="54"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D159" s="54"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D160" s="54"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D161" s="54"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D162" s="54"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D163" s="54"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D164" s="54"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D165" s="54"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D166" s="54"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D167" s="54"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D168" s="54"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D169" s="54"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D170" s="54"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D171" s="54"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D172" s="54"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D173" s="54"/>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D174" s="54"/>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D175" s="54"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D176" s="54"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D177" s="54"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D178" s="54"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D179" s="54"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D180" s="54"/>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D181" s="54"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D182" s="54"/>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D183" s="54"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D184" s="54"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D185" s="54"/>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D186" s="54"/>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D187" s="54"/>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D188" s="54"/>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D189" s="54"/>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D190" s="54"/>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D191" s="54"/>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D192" s="54"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D193" s="54"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D194" s="54"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D195" s="54"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D196" s="54"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D197" s="54"/>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D198" s="54"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D199" s="54"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D200" s="54"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D201" s="54"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D202" s="54"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D203" s="54"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D204" s="54"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D205" s="54"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D206" s="54"/>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D207" s="54"/>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D208" s="54"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D209" s="54"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D210" s="54"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D211" s="54"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D212" s="54"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D213" s="54"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D214" s="54"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D215" s="54"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D216" s="54"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D217" s="54"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D218" s="54"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D219" s="54"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D220" s="54"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D221" s="54"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D222" s="54"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D223" s="54"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D224" s="54"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D225" s="54"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D226" s="54"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D227" s="54"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D228" s="54"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D229" s="54"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D230" s="54"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D231" s="54"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D232" s="54"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D233" s="54"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D234" s="54"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D235" s="54"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D236" s="54"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D237" s="54"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D238" s="54"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D239" s="54"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D240" s="54"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D241" s="54"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D242" s="54"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D243" s="54"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D244" s="54"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D245" s="54"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D246" s="54"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D247" s="54"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D248" s="54"/>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D249" s="54"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D250" s="54"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D251" s="54"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D252" s="54"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D253" s="54"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D254" s="54"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D255" s="54"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D256" s="54"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D257" s="54"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D258" s="54"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D259" s="54"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D260" s="54"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D261" s="54"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D262" s="54"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D263" s="54"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D264" s="54"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D265" s="54"/>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D266" s="54"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D267" s="54"/>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D268" s="54"/>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D269" s="54"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D270" s="54"/>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D271" s="54"/>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D272" s="54"/>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D273" s="54"/>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D274" s="54"/>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D275" s="54"/>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D276" s="54"/>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D277" s="54"/>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D278" s="54"/>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D279" s="54"/>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D280" s="54"/>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D281" s="54"/>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D282" s="54"/>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D283" s="54"/>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D284" s="54"/>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D285" s="54"/>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D286" s="54"/>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D287" s="54"/>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D288" s="54"/>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D289" s="54"/>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D290" s="54"/>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D291" s="54"/>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D292" s="54"/>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D293" s="54"/>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D294" s="54"/>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D295" s="54"/>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D296" s="54"/>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D297" s="54"/>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D298" s="54"/>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D299" s="54"/>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D300" s="54"/>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D301" s="54"/>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D302" s="54"/>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D303" s="54"/>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D304" s="54"/>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D305" s="54"/>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D306" s="54"/>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D307" s="54"/>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D308" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="34">
+    <mergeCell ref="A62:XFD62"/>
+    <mergeCell ref="A68:XFD68"/>
+    <mergeCell ref="W59:X61"/>
+    <mergeCell ref="W69:X73"/>
+    <mergeCell ref="W65:X67"/>
+    <mergeCell ref="W33:X34"/>
+    <mergeCell ref="W27:X31"/>
+    <mergeCell ref="W23:X25"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="W57:X58"/>
+    <mergeCell ref="W51:X53"/>
+    <mergeCell ref="W47:X49"/>
+    <mergeCell ref="W39:X43"/>
+    <mergeCell ref="W35:X37"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="W9:X13"/>
+    <mergeCell ref="W6:X7"/>
     <mergeCell ref="A44:XFD44"/>
     <mergeCell ref="A50:XFD50"/>
     <mergeCell ref="A56:XFD56"/>
-    <mergeCell ref="V1:AD2"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A14:XFD14"/>
     <mergeCell ref="R1:U1"/>
@@ -3369,12 +3916,12 @@
     <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A32:XFD32"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B55 F1:F55 J1:J55 N1:N55 R1:R55 R57:R1048576 N57:N1048576 J57:J1048576 F57:F1048576 B57:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="B1:B55 F1:F55 J1:J55 N1:N55 R1:R55 B65:B67 F65:F67 J65:J67 N65:N67 R65:R67 R69:R1048576 N69:N1048576 J69:J1048576 F69:F1048576 B69:B1048576 J57:J61 N57:N61 R57:R61 B57:B61 F57:F61">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"ja"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Daily_Scrum.xlsx
+++ b/Documents/Daily_Scrum.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B51BF0-0A35-49DA-92BF-AEAEACD86931}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD7793B-C184-4A40-B94D-D7909151F6B1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="74">
   <si>
     <t>Datum</t>
   </si>
@@ -218,6 +218,30 @@
   </si>
   <si>
     <t>Teilnehmer App: Verbessern ListView Layout</t>
+  </si>
+  <si>
+    <t>Generelle Probleme</t>
+  </si>
+  <si>
+    <t>Sprint Review</t>
+  </si>
+  <si>
+    <t>Koordinationsprobleme in der Gruppe: Aufgaben wurden von anderen übernommen als eigentlich aufgeteilt</t>
+  </si>
+  <si>
+    <t>Login, Logout Teilnehmer</t>
+  </si>
+  <si>
+    <t>Login &amp; Registrieren &amp; Logout Veranstalter, zu Events anmelden, Events anzeigen (filtern)</t>
+  </si>
+  <si>
+    <t>Webservice fixen</t>
+  </si>
+  <si>
+    <t>GUI Datenanzeigen (Koordination mit Webservice)</t>
+  </si>
+  <si>
+    <t>GUI Elementeverbessern</t>
   </si>
 </sst>
 </file>
@@ -276,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -342,11 +366,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -421,23 +454,45 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,28 +509,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -786,13 +831,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD308"/>
+  <dimension ref="A1:AM308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W74" sqref="W74"/>
+      <selection pane="bottomRight" activeCell="U61" sqref="U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -820,54 +865,67 @@
     <col min="21" max="21" width="11.26171875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:39" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="42" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="42" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="42" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="40" t="s">
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-    </row>
-    <row r="2" spans="1:30" s="14" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="46"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+    </row>
+    <row r="2" spans="1:39" s="14" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="54"/>
       <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
@@ -928,17 +986,26 @@
       <c r="U2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="V2" s="38"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10">
         <v>43164</v>
       </c>
@@ -973,12 +1040,12 @@
       <c r="T3" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="51" t="s">
+      <c r="W3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="51"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="X3" s="47"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10">
         <v>43165</v>
       </c>
@@ -1018,10 +1085,10 @@
       <c r="T4" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10">
         <v>43166</v>
       </c>
@@ -1056,10 +1123,10 @@
       <c r="T5" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10">
         <v>43167</v>
       </c>
@@ -1093,12 +1160,12 @@
       <c r="T6" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="52" t="s">
+      <c r="W6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="52"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="X6" s="44"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10">
         <v>43168</v>
       </c>
@@ -1138,42 +1205,42 @@
       <c r="T7" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-    </row>
-    <row r="8" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+    </row>
+    <row r="8" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10">
         <v>43171</v>
       </c>
@@ -1207,12 +1274,12 @@
       <c r="T9" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="52" t="s">
+      <c r="W9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="X9" s="52"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="X9" s="44"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10">
         <v>43172</v>
       </c>
@@ -1243,10 +1310,10 @@
       <c r="T10" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10">
         <v>43173</v>
       </c>
@@ -1283,10 +1350,10 @@
       <c r="T11" t="s">
         <v>48</v>
       </c>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10">
         <v>43174</v>
       </c>
@@ -1323,10 +1390,10 @@
       <c r="T12" t="s">
         <v>48</v>
       </c>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10">
         <v>43175</v>
       </c>
@@ -1360,42 +1427,42 @@
       <c r="T13" t="s">
         <v>48</v>
       </c>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-    </row>
-    <row r="14" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-    </row>
-    <row r="15" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+    </row>
+    <row r="14" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+    </row>
+    <row r="15" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="20">
         <v>43178</v>
       </c>
@@ -1412,7 +1479,7 @@
       <c r="R15" s="24"/>
       <c r="U15" s="26"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10">
         <v>43179</v>
       </c>
@@ -1449,10 +1516,10 @@
       <c r="T16" t="s">
         <v>50</v>
       </c>
-      <c r="W16" s="52" t="s">
+      <c r="W16" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="X16" s="52"/>
+      <c r="X16" s="44"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10">
@@ -1491,8 +1558,8 @@
       <c r="T17" t="s">
         <v>50</v>
       </c>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10">
@@ -1528,10 +1595,10 @@
       <c r="T18" t="s">
         <v>50</v>
       </c>
-      <c r="W18" s="52" t="s">
+      <c r="W18" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="X18" s="52"/>
+      <c r="X18" s="44"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10">
@@ -1573,40 +1640,40 @@
       <c r="T19" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-    </row>
-    <row r="20" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+    </row>
+    <row r="20" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
     </row>
     <row r="21" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20">
@@ -1677,10 +1744,10 @@
       <c r="T23" t="s">
         <v>21</v>
       </c>
-      <c r="W23" s="52" t="s">
+      <c r="W23" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="X23" s="52"/>
+      <c r="X23" s="44"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10">
@@ -1710,8 +1777,8 @@
       <c r="T24" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10">
@@ -1744,40 +1811,40 @@
       <c r="T25" t="s">
         <v>21</v>
       </c>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-    </row>
-    <row r="26" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+    </row>
+    <row r="26" spans="1:30" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10">
@@ -1813,10 +1880,10 @@
       <c r="T27" t="s">
         <v>21</v>
       </c>
-      <c r="W27" s="52" t="s">
+      <c r="W27" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="X27" s="52"/>
+      <c r="X27" s="44"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10">
@@ -1852,8 +1919,8 @@
       <c r="T28" t="s">
         <v>21</v>
       </c>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10">
@@ -1898,8 +1965,8 @@
       <c r="T29" t="s">
         <v>21</v>
       </c>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10">
@@ -1935,8 +2002,8 @@
       <c r="T30" t="s">
         <v>21</v>
       </c>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10">
@@ -1978,40 +2045,40 @@
       <c r="T31" t="s">
         <v>21</v>
       </c>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-    </row>
-    <row r="32" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+    </row>
+    <row r="32" spans="1:30" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10">
@@ -2047,10 +2114,10 @@
       <c r="T33" t="s">
         <v>21</v>
       </c>
-      <c r="W33" s="52" t="s">
+      <c r="W33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="X33" s="52"/>
+      <c r="X33" s="44"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10">
@@ -2086,8 +2153,8 @@
       <c r="T34" t="s">
         <v>21</v>
       </c>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10">
@@ -2123,10 +2190,10 @@
       <c r="T35" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="52" t="s">
+      <c r="W35" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X35" s="52"/>
+      <c r="X35" s="44"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10">
@@ -2162,8 +2229,8 @@
       <c r="T36" t="s">
         <v>21</v>
       </c>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10">
@@ -2199,10 +2266,10 @@
       <c r="T37" t="s">
         <v>21</v>
       </c>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-    </row>
-    <row r="38" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+    </row>
+    <row r="38" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10">
         <v>43213</v>
@@ -2237,10 +2304,10 @@
       <c r="T39" t="s">
         <v>21</v>
       </c>
-      <c r="W39" s="52" t="s">
+      <c r="W39" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X39" s="52"/>
+      <c r="X39" s="44"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10">
@@ -2276,8 +2343,8 @@
       <c r="T40" t="s">
         <v>21</v>
       </c>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10">
@@ -2313,8 +2380,15 @@
       <c r="T41" t="s">
         <v>21</v>
       </c>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="58"/>
+      <c r="AC41" s="58"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10">
@@ -2350,8 +2424,8 @@
       <c r="T42" t="s">
         <v>21</v>
       </c>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10">
@@ -2387,10 +2461,10 @@
       <c r="T43" t="s">
         <v>21</v>
       </c>
-      <c r="W43" s="52"/>
-      <c r="X43" s="52"/>
-    </row>
-    <row r="44" spans="1:30" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+    </row>
+    <row r="44" spans="1:30" s="42" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="45" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="29">
         <v>43250</v>
@@ -2475,10 +2549,10 @@
       <c r="T47" t="s">
         <v>21</v>
       </c>
-      <c r="W47" s="52" t="s">
+      <c r="W47" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X47" s="52"/>
+      <c r="X47" s="44"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10">
@@ -2514,10 +2588,10 @@
       <c r="T48" t="s">
         <v>21</v>
       </c>
-      <c r="W48" s="52"/>
-      <c r="X48" s="52"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10">
         <v>43224</v>
       </c>
@@ -2551,42 +2625,42 @@
       <c r="T49" t="s">
         <v>21</v>
       </c>
-      <c r="W49" s="52"/>
-      <c r="X49" s="52"/>
-    </row>
-    <row r="50" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="36"/>
-      <c r="AD50" s="36"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+    </row>
+    <row r="50" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="42"/>
+      <c r="AC50" s="42"/>
+      <c r="AD50" s="42"/>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10">
         <v>43227</v>
       </c>
@@ -2620,12 +2694,12 @@
       <c r="T51" t="s">
         <v>43</v>
       </c>
-      <c r="W51" s="52" t="s">
+      <c r="W51" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X51" s="52"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="X51" s="44"/>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10">
         <v>43228</v>
       </c>
@@ -2659,10 +2733,10 @@
       <c r="T52" t="s">
         <v>43</v>
       </c>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="W52" s="44"/>
+      <c r="X52" s="44"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10">
         <v>43229</v>
       </c>
@@ -2697,10 +2771,10 @@
       <c r="T53" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-    </row>
-    <row r="54" spans="1:30" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W53" s="44"/>
+      <c r="X53" s="44"/>
+    </row>
+    <row r="54" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="31">
         <v>43230</v>
       </c>
@@ -2734,7 +2808,7 @@
       <c r="AC54" s="33"/>
       <c r="AD54" s="33"/>
     </row>
-    <row r="55" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="31">
         <v>43231</v>
       </c>
@@ -2750,39 +2824,39 @@
       <c r="R55" s="24"/>
       <c r="U55" s="26"/>
     </row>
-    <row r="56" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
-      <c r="AA56" s="38"/>
-      <c r="AB56" s="38"/>
-      <c r="AC56" s="38"/>
-      <c r="AD56" s="38"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="48"/>
+      <c r="W56" s="48"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="48"/>
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="48"/>
+      <c r="AB56" s="48"/>
+      <c r="AC56" s="48"/>
+      <c r="AD56" s="48"/>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10">
         <v>43234</v>
       </c>
@@ -2820,12 +2894,24 @@
       <c r="T57" t="s">
         <v>65</v>
       </c>
-      <c r="W57" s="52" t="s">
+      <c r="W57" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X57" s="52"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="X57" s="44"/>
+      <c r="AD57" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE57" s="57"/>
+      <c r="AF57" s="57"/>
+      <c r="AG57" s="57"/>
+      <c r="AH57" s="57"/>
+      <c r="AI57" s="57"/>
+      <c r="AJ57" s="57"/>
+      <c r="AK57" s="57"/>
+      <c r="AL57" s="57"/>
+      <c r="AM57" s="57"/>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10">
         <v>43235</v>
       </c>
@@ -2860,10 +2946,10 @@
       <c r="T58" t="s">
         <v>65</v>
       </c>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10">
         <v>43236</v>
       </c>
@@ -2873,7 +2959,7 @@
       <c r="D59" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="53"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="5" t="s">
         <v>24</v>
       </c>
@@ -2901,991 +2987,1059 @@
       <c r="T59" t="s">
         <v>65</v>
       </c>
-      <c r="W59" s="52" t="s">
+      <c r="W59" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="X59" s="52"/>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="X59" s="44"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10">
         <v>43237</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="B60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E60" s="18"/>
-      <c r="F60" s="5"/>
-      <c r="N60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" t="s">
+        <v>71</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P60" t="s">
+        <v>72</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T60" t="s">
+        <v>73</v>
+      </c>
+      <c r="W60" s="44"/>
+      <c r="X60" s="44"/>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10">
         <v>43238</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="D61" s="8"/>
+      <c r="B61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E61" s="18"/>
-      <c r="F61" s="5"/>
-      <c r="N61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-    </row>
-    <row r="62" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="36"/>
-      <c r="AB62" s="36"/>
-      <c r="AC62" s="36"/>
-      <c r="AD62" s="36"/>
-    </row>
-    <row r="63" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s">
+        <v>71</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T61" t="s">
+        <v>73</v>
+      </c>
+      <c r="W61" s="44"/>
+      <c r="X61" s="44"/>
+    </row>
+    <row r="62" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="42"/>
+      <c r="AA62" s="42"/>
+      <c r="AB62" s="42"/>
+      <c r="AC62" s="42"/>
+      <c r="AD62" s="42"/>
+    </row>
+    <row r="63" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="29">
         <v>43241</v>
       </c>
     </row>
-    <row r="64" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="29">
         <v>43242</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10">
         <v>43243</v>
       </c>
-      <c r="D65" s="54"/>
+      <c r="D65" s="41"/>
       <c r="E65" s="18"/>
       <c r="F65" s="5"/>
       <c r="N65" s="4"/>
-      <c r="W65" s="52" t="s">
+      <c r="W65" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="X65" s="52"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="X65" s="44"/>
+      <c r="Y65" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z65" s="56"/>
+      <c r="AA65" s="56"/>
+      <c r="AB65" s="56"/>
+      <c r="AC65" s="56"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10">
         <v>43244</v>
       </c>
-      <c r="D66" s="54"/>
-      <c r="E66" s="53"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="4"/>
       <c r="N66" s="4"/>
-      <c r="W66" s="52"/>
-      <c r="X66" s="52"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10">
         <v>43245</v>
       </c>
-      <c r="D67" s="54"/>
+      <c r="D67" s="41"/>
       <c r="E67" s="18"/>
       <c r="F67" s="5"/>
       <c r="N67" s="4"/>
-      <c r="W67" s="52"/>
-      <c r="X67" s="52"/>
-    </row>
-    <row r="68" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="36"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+    </row>
+    <row r="68" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="42"/>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10">
         <v>43248</v>
       </c>
-      <c r="D69" s="54"/>
-      <c r="E69" s="53"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="40"/>
       <c r="F69" s="4"/>
-      <c r="W69" s="52" t="s">
+      <c r="W69" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="X69" s="52"/>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="X69" s="44"/>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10">
         <v>43249</v>
       </c>
-      <c r="D70" s="54"/>
+      <c r="D70" s="41"/>
       <c r="E70" s="18"/>
       <c r="F70" s="5"/>
-      <c r="W70" s="52"/>
-      <c r="X70" s="52"/>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="W70" s="44"/>
+      <c r="X70" s="44"/>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10">
         <v>43250</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="D71" s="54"/>
+      <c r="D71" s="41"/>
       <c r="E71" s="18"/>
       <c r="F71" s="5"/>
-      <c r="W71" s="52"/>
-      <c r="X71" s="52"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="W71" s="44"/>
+      <c r="X71" s="44"/>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10">
         <v>43251</v>
       </c>
-      <c r="D72" s="54"/>
+      <c r="D72" s="41"/>
       <c r="E72" s="18"/>
       <c r="F72" s="5"/>
-      <c r="W72" s="52"/>
-      <c r="X72" s="52"/>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="W72" s="44"/>
+      <c r="X72" s="44"/>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10">
         <v>43252</v>
       </c>
-      <c r="D73" s="54"/>
-      <c r="E73" s="53"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="40"/>
       <c r="F73" s="4"/>
-      <c r="W73" s="52"/>
-      <c r="X73" s="52"/>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="D74" s="54"/>
+      <c r="W73" s="44"/>
+      <c r="X73" s="44"/>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" s="41"/>
       <c r="E74" s="18"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="4"/>
-      <c r="D75" s="54"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="18"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="D76" s="54"/>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" s="41"/>
       <c r="E76" s="18"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="D77" s="54"/>
-      <c r="E77" s="53"/>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" s="41"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="D78" s="54"/>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" s="41"/>
       <c r="E78" s="18"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="4"/>
-      <c r="D79" s="54"/>
+      <c r="D79" s="41"/>
       <c r="E79" s="18"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="D80" s="54"/>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" s="41"/>
       <c r="E80" s="18"/>
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D81" s="54"/>
-      <c r="E81" s="53"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="40"/>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D82" s="54"/>
+      <c r="D82" s="41"/>
       <c r="E82" s="18"/>
       <c r="F82" s="5"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="4"/>
-      <c r="D83" s="54"/>
+      <c r="D83" s="41"/>
       <c r="E83" s="18"/>
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D84" s="54"/>
+      <c r="D84" s="41"/>
       <c r="E84" s="18"/>
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D85" s="54"/>
-      <c r="E85" s="53"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D86" s="54"/>
+      <c r="D86" s="41"/>
       <c r="E86" s="18"/>
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="4"/>
-      <c r="D87" s="54"/>
+      <c r="D87" s="41"/>
       <c r="E87" s="18"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D88" s="54"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="18"/>
       <c r="F88" s="5"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D89" s="54"/>
-      <c r="E89" s="53"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="40"/>
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D90" s="54"/>
+      <c r="D90" s="41"/>
       <c r="E90" s="18"/>
       <c r="F90" s="5"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="4"/>
-      <c r="D91" s="54"/>
+      <c r="D91" s="41"/>
       <c r="E91" s="18"/>
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D92" s="54"/>
+      <c r="D92" s="41"/>
       <c r="E92" s="18"/>
       <c r="F92" s="5"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D93" s="54"/>
-      <c r="E93" s="53"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D94" s="54"/>
+      <c r="D94" s="41"/>
       <c r="E94" s="18"/>
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="4"/>
-      <c r="D95" s="54"/>
+      <c r="D95" s="41"/>
       <c r="E95" s="18"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D96" s="54"/>
+      <c r="D96" s="41"/>
       <c r="E96" s="18"/>
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D97" s="54"/>
-      <c r="E97" s="53"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="40"/>
       <c r="F97" s="4"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D98" s="54"/>
+      <c r="D98" s="41"/>
       <c r="E98" s="18"/>
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="4"/>
-      <c r="D99" s="54"/>
+      <c r="D99" s="41"/>
       <c r="E99" s="18"/>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D100" s="54"/>
+      <c r="D100" s="41"/>
       <c r="E100" s="18"/>
       <c r="F100" s="5"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D101" s="54"/>
-      <c r="E101" s="53"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="40"/>
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D102" s="54"/>
+      <c r="D102" s="41"/>
       <c r="E102" s="18"/>
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="4"/>
-      <c r="D103" s="54"/>
+      <c r="D103" s="41"/>
       <c r="E103" s="18"/>
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D104" s="54"/>
+      <c r="D104" s="41"/>
       <c r="E104" s="18"/>
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D105" s="54"/>
-      <c r="E105" s="53"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="40"/>
       <c r="F105" s="4"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D106" s="54"/>
+      <c r="D106" s="41"/>
       <c r="E106" s="18"/>
       <c r="F106" s="5"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D107" s="54"/>
+      <c r="D107" s="41"/>
       <c r="E107" s="18"/>
       <c r="F107" s="5"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D108" s="54"/>
+      <c r="D108" s="41"/>
       <c r="E108" s="18"/>
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D109" s="54"/>
-      <c r="E109" s="53"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="40"/>
       <c r="F109" s="4"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D110" s="54"/>
+      <c r="D110" s="41"/>
       <c r="E110" s="18"/>
       <c r="F110" s="5"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D111" s="54"/>
+      <c r="D111" s="41"/>
       <c r="E111" s="18"/>
       <c r="F111" s="5"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D112" s="54"/>
+      <c r="D112" s="41"/>
       <c r="E112" s="18"/>
       <c r="F112" s="5"/>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D113" s="54"/>
-      <c r="E113" s="53"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="40"/>
       <c r="F113" s="4"/>
     </row>
     <row r="114" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D114" s="54"/>
+      <c r="D114" s="41"/>
       <c r="E114" s="18"/>
       <c r="F114" s="5"/>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D115" s="54"/>
+      <c r="D115" s="41"/>
     </row>
     <row r="116" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D116" s="54"/>
+      <c r="D116" s="41"/>
     </row>
     <row r="117" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D117" s="54"/>
+      <c r="D117" s="41"/>
     </row>
     <row r="118" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D118" s="54"/>
+      <c r="D118" s="41"/>
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D119" s="54"/>
+      <c r="D119" s="41"/>
     </row>
     <row r="120" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D120" s="54"/>
+      <c r="D120" s="41"/>
     </row>
     <row r="121" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D121" s="54"/>
+      <c r="D121" s="41"/>
     </row>
     <row r="122" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D122" s="54"/>
+      <c r="D122" s="41"/>
     </row>
     <row r="123" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D123" s="54"/>
+      <c r="D123" s="41"/>
     </row>
     <row r="124" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D124" s="54"/>
+      <c r="D124" s="41"/>
     </row>
     <row r="125" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D125" s="54"/>
+      <c r="D125" s="41"/>
     </row>
     <row r="126" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D126" s="54"/>
+      <c r="D126" s="41"/>
     </row>
     <row r="127" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D127" s="54"/>
+      <c r="D127" s="41"/>
     </row>
     <row r="128" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D128" s="54"/>
+      <c r="D128" s="41"/>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D129" s="54"/>
+      <c r="D129" s="41"/>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D130" s="54"/>
+      <c r="D130" s="41"/>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D131" s="54"/>
+      <c r="D131" s="41"/>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D132" s="54"/>
+      <c r="D132" s="41"/>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D133" s="54"/>
+      <c r="D133" s="41"/>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D134" s="54"/>
+      <c r="D134" s="41"/>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D135" s="54"/>
+      <c r="D135" s="41"/>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D136" s="54"/>
+      <c r="D136" s="41"/>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D137" s="54"/>
+      <c r="D137" s="41"/>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D138" s="54"/>
+      <c r="D138" s="41"/>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D139" s="54"/>
+      <c r="D139" s="41"/>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D140" s="54"/>
+      <c r="D140" s="41"/>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D141" s="54"/>
+      <c r="D141" s="41"/>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D142" s="54"/>
+      <c r="D142" s="41"/>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D143" s="54"/>
+      <c r="D143" s="41"/>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D144" s="54"/>
+      <c r="D144" s="41"/>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D145" s="54"/>
+      <c r="D145" s="41"/>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D146" s="54"/>
+      <c r="D146" s="41"/>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D147" s="54"/>
+      <c r="D147" s="41"/>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D148" s="54"/>
+      <c r="D148" s="41"/>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D149" s="54"/>
+      <c r="D149" s="41"/>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D150" s="54"/>
+      <c r="D150" s="41"/>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D151" s="54"/>
+      <c r="D151" s="41"/>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D152" s="54"/>
+      <c r="D152" s="41"/>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D153" s="54"/>
+      <c r="D153" s="41"/>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D154" s="54"/>
+      <c r="D154" s="41"/>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D155" s="54"/>
+      <c r="D155" s="41"/>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D156" s="54"/>
+      <c r="D156" s="41"/>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D157" s="54"/>
+      <c r="D157" s="41"/>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D158" s="54"/>
+      <c r="D158" s="41"/>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D159" s="54"/>
+      <c r="D159" s="41"/>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D160" s="54"/>
+      <c r="D160" s="41"/>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D161" s="54"/>
+      <c r="D161" s="41"/>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D162" s="54"/>
+      <c r="D162" s="41"/>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D163" s="54"/>
+      <c r="D163" s="41"/>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D164" s="54"/>
+      <c r="D164" s="41"/>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D165" s="54"/>
+      <c r="D165" s="41"/>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D166" s="54"/>
+      <c r="D166" s="41"/>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D167" s="54"/>
+      <c r="D167" s="41"/>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D168" s="54"/>
+      <c r="D168" s="41"/>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D169" s="54"/>
+      <c r="D169" s="41"/>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D170" s="54"/>
+      <c r="D170" s="41"/>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D171" s="54"/>
+      <c r="D171" s="41"/>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D172" s="54"/>
+      <c r="D172" s="41"/>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D173" s="54"/>
+      <c r="D173" s="41"/>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D174" s="54"/>
+      <c r="D174" s="41"/>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D175" s="54"/>
+      <c r="D175" s="41"/>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D176" s="54"/>
+      <c r="D176" s="41"/>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D177" s="54"/>
+      <c r="D177" s="41"/>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D178" s="54"/>
+      <c r="D178" s="41"/>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D179" s="54"/>
+      <c r="D179" s="41"/>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D180" s="54"/>
+      <c r="D180" s="41"/>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D181" s="54"/>
+      <c r="D181" s="41"/>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D182" s="54"/>
+      <c r="D182" s="41"/>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D183" s="54"/>
+      <c r="D183" s="41"/>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D184" s="54"/>
+      <c r="D184" s="41"/>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D185" s="54"/>
+      <c r="D185" s="41"/>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D186" s="54"/>
+      <c r="D186" s="41"/>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D187" s="54"/>
+      <c r="D187" s="41"/>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D188" s="54"/>
+      <c r="D188" s="41"/>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D189" s="54"/>
+      <c r="D189" s="41"/>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D190" s="54"/>
+      <c r="D190" s="41"/>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D191" s="54"/>
+      <c r="D191" s="41"/>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D192" s="54"/>
+      <c r="D192" s="41"/>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D193" s="54"/>
+      <c r="D193" s="41"/>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D194" s="54"/>
+      <c r="D194" s="41"/>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D195" s="54"/>
+      <c r="D195" s="41"/>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D196" s="54"/>
+      <c r="D196" s="41"/>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D197" s="54"/>
+      <c r="D197" s="41"/>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D198" s="54"/>
+      <c r="D198" s="41"/>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D199" s="54"/>
+      <c r="D199" s="41"/>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D200" s="54"/>
+      <c r="D200" s="41"/>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D201" s="54"/>
+      <c r="D201" s="41"/>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D202" s="54"/>
+      <c r="D202" s="41"/>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D203" s="54"/>
+      <c r="D203" s="41"/>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D204" s="54"/>
+      <c r="D204" s="41"/>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D205" s="54"/>
+      <c r="D205" s="41"/>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D206" s="54"/>
+      <c r="D206" s="41"/>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D207" s="54"/>
+      <c r="D207" s="41"/>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D208" s="54"/>
+      <c r="D208" s="41"/>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D209" s="54"/>
+      <c r="D209" s="41"/>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D210" s="54"/>
+      <c r="D210" s="41"/>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D211" s="54"/>
+      <c r="D211" s="41"/>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D212" s="54"/>
+      <c r="D212" s="41"/>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D213" s="54"/>
+      <c r="D213" s="41"/>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D214" s="54"/>
+      <c r="D214" s="41"/>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D215" s="54"/>
+      <c r="D215" s="41"/>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D216" s="54"/>
+      <c r="D216" s="41"/>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D217" s="54"/>
+      <c r="D217" s="41"/>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D218" s="54"/>
+      <c r="D218" s="41"/>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D219" s="54"/>
+      <c r="D219" s="41"/>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D220" s="54"/>
+      <c r="D220" s="41"/>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D221" s="54"/>
+      <c r="D221" s="41"/>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D222" s="54"/>
+      <c r="D222" s="41"/>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D223" s="54"/>
+      <c r="D223" s="41"/>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D224" s="54"/>
+      <c r="D224" s="41"/>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D225" s="54"/>
+      <c r="D225" s="41"/>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D226" s="54"/>
+      <c r="D226" s="41"/>
     </row>
     <row r="227" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D227" s="54"/>
+      <c r="D227" s="41"/>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D228" s="54"/>
+      <c r="D228" s="41"/>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D229" s="54"/>
+      <c r="D229" s="41"/>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D230" s="54"/>
+      <c r="D230" s="41"/>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D231" s="54"/>
+      <c r="D231" s="41"/>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D232" s="54"/>
+      <c r="D232" s="41"/>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D233" s="54"/>
+      <c r="D233" s="41"/>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D234" s="54"/>
+      <c r="D234" s="41"/>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D235" s="54"/>
+      <c r="D235" s="41"/>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D236" s="54"/>
+      <c r="D236" s="41"/>
     </row>
     <row r="237" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D237" s="54"/>
+      <c r="D237" s="41"/>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D238" s="54"/>
+      <c r="D238" s="41"/>
     </row>
     <row r="239" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D239" s="54"/>
+      <c r="D239" s="41"/>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D240" s="54"/>
+      <c r="D240" s="41"/>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D241" s="54"/>
+      <c r="D241" s="41"/>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D242" s="54"/>
+      <c r="D242" s="41"/>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D243" s="54"/>
+      <c r="D243" s="41"/>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D244" s="54"/>
+      <c r="D244" s="41"/>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D245" s="54"/>
+      <c r="D245" s="41"/>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D246" s="54"/>
+      <c r="D246" s="41"/>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D247" s="54"/>
+      <c r="D247" s="41"/>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D248" s="54"/>
+      <c r="D248" s="41"/>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D249" s="54"/>
+      <c r="D249" s="41"/>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D250" s="54"/>
+      <c r="D250" s="41"/>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D251" s="54"/>
+      <c r="D251" s="41"/>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D252" s="54"/>
+      <c r="D252" s="41"/>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D253" s="54"/>
+      <c r="D253" s="41"/>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D254" s="54"/>
+      <c r="D254" s="41"/>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D255" s="54"/>
+      <c r="D255" s="41"/>
     </row>
     <row r="256" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D256" s="54"/>
+      <c r="D256" s="41"/>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D257" s="54"/>
+      <c r="D257" s="41"/>
     </row>
     <row r="258" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D258" s="54"/>
+      <c r="D258" s="41"/>
     </row>
     <row r="259" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D259" s="54"/>
+      <c r="D259" s="41"/>
     </row>
     <row r="260" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D260" s="54"/>
+      <c r="D260" s="41"/>
     </row>
     <row r="261" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D261" s="54"/>
+      <c r="D261" s="41"/>
     </row>
     <row r="262" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D262" s="54"/>
+      <c r="D262" s="41"/>
     </row>
     <row r="263" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D263" s="54"/>
+      <c r="D263" s="41"/>
     </row>
     <row r="264" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D264" s="54"/>
+      <c r="D264" s="41"/>
     </row>
     <row r="265" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D265" s="54"/>
+      <c r="D265" s="41"/>
     </row>
     <row r="266" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D266" s="54"/>
+      <c r="D266" s="41"/>
     </row>
     <row r="267" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D267" s="54"/>
+      <c r="D267" s="41"/>
     </row>
     <row r="268" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D268" s="54"/>
+      <c r="D268" s="41"/>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D269" s="54"/>
+      <c r="D269" s="41"/>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D270" s="54"/>
+      <c r="D270" s="41"/>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D271" s="54"/>
+      <c r="D271" s="41"/>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D272" s="54"/>
+      <c r="D272" s="41"/>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D273" s="54"/>
+      <c r="D273" s="41"/>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D274" s="54"/>
+      <c r="D274" s="41"/>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D275" s="54"/>
+      <c r="D275" s="41"/>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D276" s="54"/>
+      <c r="D276" s="41"/>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D277" s="54"/>
+      <c r="D277" s="41"/>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D278" s="54"/>
+      <c r="D278" s="41"/>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D279" s="54"/>
+      <c r="D279" s="41"/>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D280" s="54"/>
+      <c r="D280" s="41"/>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D281" s="54"/>
+      <c r="D281" s="41"/>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D282" s="54"/>
+      <c r="D282" s="41"/>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D283" s="54"/>
+      <c r="D283" s="41"/>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D284" s="54"/>
+      <c r="D284" s="41"/>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D285" s="54"/>
+      <c r="D285" s="41"/>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D286" s="54"/>
+      <c r="D286" s="41"/>
     </row>
     <row r="287" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D287" s="54"/>
+      <c r="D287" s="41"/>
     </row>
     <row r="288" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D288" s="54"/>
+      <c r="D288" s="41"/>
     </row>
     <row r="289" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D289" s="54"/>
+      <c r="D289" s="41"/>
     </row>
     <row r="290" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D290" s="54"/>
+      <c r="D290" s="41"/>
     </row>
     <row r="291" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D291" s="54"/>
+      <c r="D291" s="41"/>
     </row>
     <row r="292" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D292" s="54"/>
+      <c r="D292" s="41"/>
     </row>
     <row r="293" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D293" s="54"/>
+      <c r="D293" s="41"/>
     </row>
     <row r="294" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D294" s="54"/>
+      <c r="D294" s="41"/>
     </row>
     <row r="295" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D295" s="54"/>
+      <c r="D295" s="41"/>
     </row>
     <row r="296" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D296" s="54"/>
+      <c r="D296" s="41"/>
     </row>
     <row r="297" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D297" s="54"/>
+      <c r="D297" s="41"/>
     </row>
     <row r="298" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D298" s="54"/>
+      <c r="D298" s="41"/>
     </row>
     <row r="299" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D299" s="54"/>
+      <c r="D299" s="41"/>
     </row>
     <row r="300" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D300" s="54"/>
+      <c r="D300" s="41"/>
     </row>
     <row r="301" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D301" s="54"/>
+      <c r="D301" s="41"/>
     </row>
     <row r="302" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D302" s="54"/>
+      <c r="D302" s="41"/>
     </row>
     <row r="303" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D303" s="54"/>
+      <c r="D303" s="41"/>
     </row>
     <row r="304" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D304" s="54"/>
+      <c r="D304" s="41"/>
     </row>
     <row r="305" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D305" s="54"/>
+      <c r="D305" s="41"/>
     </row>
     <row r="306" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D306" s="54"/>
+      <c r="D306" s="41"/>
     </row>
     <row r="307" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D307" s="54"/>
+      <c r="D307" s="41"/>
     </row>
     <row r="308" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D308" s="54"/>
+      <c r="D308" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A62:XFD62"/>
-    <mergeCell ref="A68:XFD68"/>
-    <mergeCell ref="W59:X61"/>
-    <mergeCell ref="W69:X73"/>
-    <mergeCell ref="W65:X67"/>
+  <mergeCells count="39">
+    <mergeCell ref="AD1:AM2"/>
+    <mergeCell ref="AD57:AM57"/>
+    <mergeCell ref="Y41:AC41"/>
+    <mergeCell ref="Y65:AC65"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="W9:X13"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="Y1:Z2"/>
     <mergeCell ref="W33:X34"/>
     <mergeCell ref="W27:X31"/>
     <mergeCell ref="W23:X25"/>
@@ -3895,28 +4049,20 @@
     <mergeCell ref="W47:X49"/>
     <mergeCell ref="W39:X43"/>
     <mergeCell ref="W35:X37"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="W9:X13"/>
-    <mergeCell ref="W6:X7"/>
     <mergeCell ref="A44:XFD44"/>
     <mergeCell ref="A50:XFD50"/>
     <mergeCell ref="A56:XFD56"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="A38:XFD38"/>
     <mergeCell ref="A20:XFD20"/>
     <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="A62:XFD62"/>
+    <mergeCell ref="A68:XFD68"/>
+    <mergeCell ref="W59:X61"/>
+    <mergeCell ref="W69:X73"/>
+    <mergeCell ref="W65:X67"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B55 F1:F55 J1:J55 N1:N55 R1:R55 B65:B67 F65:F67 J65:J67 N65:N67 R65:R67 R69:R1048576 N69:N1048576 J69:J1048576 F69:F1048576 B69:B1048576 J57:J61 N57:N61 R57:R61 B57:B61 F57:F61">
+  <conditionalFormatting sqref="B1:B55 F1:F55 J1:J55 N1:N55 R1:R55 B65:B67 F65:F67 J65:J67 N65:N67 R65:R67 R69:R1048576 N69:N1048576 J69:J1048576 F69:F1048576 B69:B1048576 J57:J61 N57:N61 R57:R61 F57:F61 B57:B61">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ja"</formula>
     </cfRule>

--- a/Documents/Daily_Scrum.xlsx
+++ b/Documents/Daily_Scrum.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD7793B-C184-4A40-B94D-D7909151F6B1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05981A30-24A2-478B-A9C6-02A91C03610D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="87">
   <si>
     <t>Datum</t>
   </si>
@@ -242,6 +242,45 @@
   </si>
   <si>
     <t>GUI Elementeverbessern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profil GUI </t>
+  </si>
+  <si>
+    <t>Request von Syncron auf Asyncron umgestellt</t>
+  </si>
+  <si>
+    <t>Fehler in Selects</t>
+  </si>
+  <si>
+    <t>Recovery Email einfügen</t>
+  </si>
+  <si>
+    <t>Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Fehler mit der Verbindung zur Datenbank wurden zusammen gedebbugt und behoben</t>
+  </si>
+  <si>
+    <t>Profil GUI</t>
+  </si>
+  <si>
+    <t>Ändern der Benutzerdaten in der GUI</t>
+  </si>
+  <si>
+    <t>Liste angepasst in GUI</t>
+  </si>
+  <si>
+    <t>Eventdetails anzeigen</t>
+  </si>
+  <si>
+    <t>Config file für Webservice</t>
+  </si>
+  <si>
+    <t>Dokumente berichtigen</t>
+  </si>
+  <si>
+    <t>in Einstellungen: Gui fürs anpassen der Benutzerdaten</t>
   </si>
 </sst>
 </file>
@@ -379,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -470,23 +509,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,11 +540,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -834,10 +877,10 @@
   <dimension ref="A1:AM308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U61" sqref="U61"/>
+      <selection pane="bottomRight" activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -866,66 +909,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="50" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="50" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
       <c r="V1" s="36"/>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45" t="s">
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="45"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="37"/>
       <c r="AB1" s="37"/>
       <c r="AC1" s="37"/>
-      <c r="AD1" s="45" t="s">
+      <c r="AD1" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
     </row>
     <row r="2" spans="1:39" s="14" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="54"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
@@ -987,23 +1030,23 @@
         <v>2</v>
       </c>
       <c r="V2" s="38"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
       <c r="AA2" s="39"/>
       <c r="AB2" s="39"/>
       <c r="AC2" s="39"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10">
@@ -1040,10 +1083,10 @@
       <c r="T3" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="47" t="s">
+      <c r="W3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="47"/>
+      <c r="X3" s="58"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10">
@@ -1208,37 +1251,37 @@
       <c r="W7" s="44"/>
       <c r="X7" s="44"/>
     </row>
-    <row r="8" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
+    <row r="8" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10">
@@ -1430,37 +1473,37 @@
       <c r="W13" s="44"/>
       <c r="X13" s="44"/>
     </row>
-    <row r="14" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
+    <row r="14" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
     </row>
     <row r="15" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="20">
@@ -1643,37 +1686,37 @@
       <c r="W19" s="44"/>
       <c r="X19" s="44"/>
     </row>
-    <row r="20" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
+    <row r="20" spans="1:30" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
     </row>
     <row r="21" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20">
@@ -1814,37 +1857,37 @@
       <c r="W25" s="44"/>
       <c r="X25" s="44"/>
     </row>
-    <row r="26" spans="1:30" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
+    <row r="26" spans="1:30" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10">
@@ -2048,37 +2091,37 @@
       <c r="W31" s="44"/>
       <c r="X31" s="44"/>
     </row>
-    <row r="32" spans="1:30" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
+    <row r="32" spans="1:30" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10">
@@ -2269,7 +2312,7 @@
       <c r="W37" s="44"/>
       <c r="X37" s="44"/>
     </row>
-    <row r="38" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10">
         <v>43213</v>
@@ -2382,13 +2425,13 @@
       </c>
       <c r="W41" s="44"/>
       <c r="X41" s="44"/>
-      <c r="Y41" s="58" t="s">
+      <c r="Y41" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="Z41" s="58"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="58"/>
-      <c r="AC41" s="58"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10">
@@ -2464,7 +2507,7 @@
       <c r="W43" s="44"/>
       <c r="X43" s="44"/>
     </row>
-    <row r="44" spans="1:30" s="42" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" spans="1:30" s="55" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="45" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="29">
         <v>43250</v>
@@ -2628,37 +2671,37 @@
       <c r="W49" s="44"/>
       <c r="X49" s="44"/>
     </row>
-    <row r="50" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="42"/>
-      <c r="Y50" s="42"/>
-      <c r="Z50" s="42"/>
-      <c r="AA50" s="42"/>
-      <c r="AB50" s="42"/>
-      <c r="AC50" s="42"/>
-      <c r="AD50" s="42"/>
+    <row r="50" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="55"/>
+      <c r="Y50" s="55"/>
+      <c r="Z50" s="55"/>
+      <c r="AA50" s="55"/>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="55"/>
+      <c r="AD50" s="55"/>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10">
@@ -2824,37 +2867,37 @@
       <c r="R55" s="24"/>
       <c r="U55" s="26"/>
     </row>
-    <row r="56" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="48"/>
-      <c r="U56" s="48"/>
-      <c r="V56" s="48"/>
-      <c r="W56" s="48"/>
-      <c r="X56" s="48"/>
-      <c r="Y56" s="48"/>
-      <c r="Z56" s="48"/>
-      <c r="AA56" s="48"/>
-      <c r="AB56" s="48"/>
-      <c r="AC56" s="48"/>
-      <c r="AD56" s="48"/>
+    <row r="56" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="46"/>
+      <c r="AB56" s="46"/>
+      <c r="AC56" s="46"/>
+      <c r="AD56" s="46"/>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10">
@@ -2898,18 +2941,18 @@
         <v>7</v>
       </c>
       <c r="X57" s="44"/>
-      <c r="AD57" s="57" t="s">
+      <c r="AD57" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="AE57" s="57"/>
-      <c r="AF57" s="57"/>
-      <c r="AG57" s="57"/>
-      <c r="AH57" s="57"/>
-      <c r="AI57" s="57"/>
-      <c r="AJ57" s="57"/>
-      <c r="AK57" s="57"/>
-      <c r="AL57" s="57"/>
-      <c r="AM57" s="57"/>
+      <c r="AE57" s="59"/>
+      <c r="AF57" s="59"/>
+      <c r="AG57" s="59"/>
+      <c r="AH57" s="59"/>
+      <c r="AI57" s="59"/>
+      <c r="AJ57" s="59"/>
+      <c r="AK57" s="59"/>
+      <c r="AL57" s="59"/>
+      <c r="AM57" s="59"/>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10">
@@ -3065,37 +3108,37 @@
       <c r="W61" s="44"/>
       <c r="X61" s="44"/>
     </row>
-    <row r="62" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="42"/>
-      <c r="X62" s="42"/>
-      <c r="Y62" s="42"/>
-      <c r="Z62" s="42"/>
-      <c r="AA62" s="42"/>
-      <c r="AB62" s="42"/>
-      <c r="AC62" s="42"/>
-      <c r="AD62" s="42"/>
+    <row r="62" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
+      <c r="Z62" s="55"/>
+      <c r="AA62" s="55"/>
+      <c r="AB62" s="55"/>
+      <c r="AC62" s="55"/>
+      <c r="AD62" s="55"/>
     </row>
     <row r="63" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="29">
@@ -3107,241 +3150,683 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10">
         <v>43243</v>
       </c>
-      <c r="D65" s="41"/>
+      <c r="B65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>84</v>
+      </c>
       <c r="E65" s="18"/>
-      <c r="F65" s="5"/>
-      <c r="N65" s="4"/>
+      <c r="F65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s">
+        <v>75</v>
+      </c>
+      <c r="J65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P65" t="s">
+        <v>81</v>
+      </c>
+      <c r="R65" t="s">
+        <v>24</v>
+      </c>
+      <c r="T65" t="s">
+        <v>82</v>
+      </c>
       <c r="W65" s="44" t="s">
         <v>4</v>
       </c>
       <c r="X65" s="44"/>
-      <c r="Y65" s="56" t="s">
+      <c r="Y65" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="Z65" s="56"/>
-      <c r="AA65" s="56"/>
-      <c r="AB65" s="56"/>
-      <c r="AC65" s="56"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="45"/>
+      <c r="AB65" s="45"/>
+      <c r="AC65" s="45"/>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10">
         <v>43244</v>
       </c>
-      <c r="D66" s="41"/>
+      <c r="B66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>84</v>
+      </c>
       <c r="E66" s="40"/>
-      <c r="F66" s="4"/>
-      <c r="N66" s="4"/>
+      <c r="F66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J66" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" t="s">
+        <v>78</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P66" t="s">
+        <v>81</v>
+      </c>
+      <c r="R66" t="s">
+        <v>24</v>
+      </c>
+      <c r="T66" t="s">
+        <v>82</v>
+      </c>
       <c r="W66" s="44"/>
       <c r="X66" s="44"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10">
         <v>43245</v>
       </c>
-      <c r="D67" s="41"/>
+      <c r="B67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>84</v>
+      </c>
       <c r="E67" s="18"/>
-      <c r="F67" s="5"/>
-      <c r="N67" s="4"/>
+      <c r="F67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" t="s">
+        <v>75</v>
+      </c>
+      <c r="J67" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" t="s">
+        <v>78</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P67" t="s">
+        <v>81</v>
+      </c>
+      <c r="R67" t="s">
+        <v>24</v>
+      </c>
+      <c r="T67" t="s">
+        <v>82</v>
+      </c>
       <c r="W67" s="44"/>
       <c r="X67" s="44"/>
     </row>
-    <row r="68" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="42"/>
-      <c r="S68" s="42"/>
-      <c r="T68" s="42"/>
-      <c r="U68" s="42"/>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="55"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="55"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="55"/>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10">
         <v>43248</v>
       </c>
-      <c r="D69" s="41"/>
+      <c r="B69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>84</v>
+      </c>
       <c r="E69" s="40"/>
-      <c r="F69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s">
+        <v>75</v>
+      </c>
+      <c r="J69" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" t="s">
+        <v>77</v>
+      </c>
+      <c r="N69" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P69" t="s">
+        <v>81</v>
+      </c>
+      <c r="R69" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="T69" t="s">
+        <v>82</v>
+      </c>
       <c r="W69" s="44" t="s">
         <v>4</v>
       </c>
       <c r="X69" s="44"/>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AD69" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE69" s="45"/>
+      <c r="AF69" s="45"/>
+      <c r="AG69" s="45"/>
+      <c r="AH69" s="45"/>
+      <c r="AI69" s="45"/>
+      <c r="AJ69" s="45"/>
+      <c r="AK69" s="45"/>
+      <c r="AL69" s="45"/>
+      <c r="AM69" s="45"/>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10">
         <v>43249</v>
       </c>
-      <c r="D70" s="41"/>
+      <c r="B70" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>84</v>
+      </c>
       <c r="E70" s="18"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" t="s">
+        <v>77</v>
+      </c>
+      <c r="N70" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P70" t="s">
+        <v>81</v>
+      </c>
+      <c r="R70" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="T70" t="s">
+        <v>82</v>
+      </c>
       <c r="W70" s="44"/>
       <c r="X70" s="44"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10">
         <v>43250</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="D71" s="41"/>
+      <c r="B71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>84</v>
+      </c>
       <c r="E71" s="18"/>
-      <c r="F71" s="5"/>
+      <c r="F71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" t="s">
+        <v>77</v>
+      </c>
+      <c r="N71" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P71" t="s">
+        <v>80</v>
+      </c>
+      <c r="R71" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="T71" t="s">
+        <v>83</v>
+      </c>
       <c r="W71" s="44"/>
       <c r="X71" s="44"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10">
         <v>43251</v>
       </c>
-      <c r="D72" s="41"/>
+      <c r="B72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="E72" s="18"/>
-      <c r="F72" s="5"/>
+      <c r="F72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s">
+        <v>75</v>
+      </c>
+      <c r="J72" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" t="s">
+        <v>78</v>
+      </c>
+      <c r="N72" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P72" t="s">
+        <v>80</v>
+      </c>
+      <c r="R72" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="T72" t="s">
+        <v>83</v>
+      </c>
       <c r="W72" s="44"/>
       <c r="X72" s="44"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10">
         <v>43252</v>
       </c>
-      <c r="D73" s="41"/>
+      <c r="B73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="E73" s="40"/>
-      <c r="F73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s">
+        <v>75</v>
+      </c>
+      <c r="J73" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" t="s">
+        <v>78</v>
+      </c>
+      <c r="N73" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P73" t="s">
+        <v>80</v>
+      </c>
+      <c r="R73" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="T73" t="s">
+        <v>83</v>
+      </c>
       <c r="W73" s="44"/>
       <c r="X73" s="44"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="D74" s="41"/>
       <c r="E74" s="18"/>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="J74" s="43"/>
+      <c r="N74" s="42"/>
+      <c r="R74" s="43"/>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="10">
+        <v>43255</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D75" s="41"/>
       <c r="E75" s="18"/>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="F75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O75" t="s">
+        <v>74</v>
+      </c>
+      <c r="P75" t="s">
+        <v>86</v>
+      </c>
+      <c r="R75" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W75" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="X75" s="44"/>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="10">
+        <v>43256</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D76" s="41"/>
       <c r="E76" s="18"/>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="F76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R76" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W76" s="44"/>
+      <c r="X76" s="44"/>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="10">
+        <v>43257</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D77" s="41"/>
       <c r="E77" s="40"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="F77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N77" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R77" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W77" s="44"/>
+      <c r="X77" s="44"/>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="10">
+        <v>43258</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D78" s="41"/>
       <c r="E78" s="18"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R78" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W78" s="44"/>
+      <c r="X78" s="44"/>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="10">
+        <v>43259</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="18"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="F79" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R79" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W79" s="44"/>
+      <c r="X79" s="44"/>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" s="41"/>
       <c r="E80" s="18"/>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F80" s="4"/>
+      <c r="J80" s="43"/>
+      <c r="N80" s="42"/>
+      <c r="R80" s="43"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="10">
+        <v>43262</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="40"/>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F81" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R81" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W81" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="X81" s="44"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="10">
+        <v>43263</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="18"/>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R82" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W82" s="44"/>
+      <c r="X82" s="44"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="10">
+        <v>43264</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D83" s="41"/>
       <c r="E83" s="18"/>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R83" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W83" s="44"/>
+      <c r="X83" s="44"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="10">
+        <v>43265</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D84" s="41"/>
       <c r="E84" s="18"/>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F84" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N84" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R84" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W84" s="44"/>
+      <c r="X84" s="44"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="10">
+        <v>43266</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D85" s="41"/>
       <c r="E85" s="40"/>
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F85" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N85" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R85" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W85" s="44"/>
+      <c r="X85" s="44"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="10"/>
       <c r="D86" s="41"/>
       <c r="E86" s="18"/>
       <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="J86" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="4"/>
       <c r="D87" s="41"/>
       <c r="E87" s="18"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="D88" s="41"/>
       <c r="E88" s="18"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="D89" s="41"/>
       <c r="E89" s="40"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="D90" s="41"/>
       <c r="E90" s="18"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="4"/>
       <c r="D91" s="41"/>
       <c r="E91" s="18"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="D92" s="41"/>
       <c r="E92" s="18"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="D93" s="41"/>
       <c r="E93" s="40"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="D94" s="41"/>
       <c r="E94" s="18"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="4"/>
       <c r="D95" s="41"/>
       <c r="E95" s="18"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="D96" s="41"/>
       <c r="E96" s="18"/>
       <c r="F96" s="5"/>
@@ -4021,17 +4506,36 @@
       <c r="D308" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="AD1:AM2"/>
+  <mergeCells count="42">
+    <mergeCell ref="A62:XFD62"/>
+    <mergeCell ref="A68:XFD68"/>
+    <mergeCell ref="W59:X61"/>
+    <mergeCell ref="W69:X73"/>
+    <mergeCell ref="W65:X67"/>
+    <mergeCell ref="Y65:AC65"/>
+    <mergeCell ref="W57:X58"/>
+    <mergeCell ref="W51:X53"/>
+    <mergeCell ref="W47:X49"/>
+    <mergeCell ref="W39:X43"/>
+    <mergeCell ref="W35:X37"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A50:XFD50"/>
+    <mergeCell ref="A56:XFD56"/>
+    <mergeCell ref="A38:XFD38"/>
     <mergeCell ref="AD57:AM57"/>
     <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="Y65:AC65"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="AD1:AM2"/>
     <mergeCell ref="W1:X2"/>
     <mergeCell ref="W3:X5"/>
     <mergeCell ref="W16:X17"/>
     <mergeCell ref="W9:X13"/>
     <mergeCell ref="W6:X7"/>
     <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="W75:X79"/>
+    <mergeCell ref="W81:X85"/>
+    <mergeCell ref="AD69:AM69"/>
     <mergeCell ref="A14:XFD14"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="A1:A2"/>
@@ -4044,25 +4548,9 @@
     <mergeCell ref="W27:X31"/>
     <mergeCell ref="W23:X25"/>
     <mergeCell ref="W18:X19"/>
-    <mergeCell ref="W57:X58"/>
-    <mergeCell ref="W51:X53"/>
-    <mergeCell ref="W47:X49"/>
-    <mergeCell ref="W39:X43"/>
-    <mergeCell ref="W35:X37"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A50:XFD50"/>
-    <mergeCell ref="A56:XFD56"/>
-    <mergeCell ref="A38:XFD38"/>
     <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="A62:XFD62"/>
-    <mergeCell ref="A68:XFD68"/>
-    <mergeCell ref="W59:X61"/>
-    <mergeCell ref="W69:X73"/>
-    <mergeCell ref="W65:X67"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B55 F1:F55 J1:J55 N1:N55 R1:R55 B65:B67 F65:F67 J65:J67 N65:N67 R65:R67 R69:R1048576 N69:N1048576 J69:J1048576 F69:F1048576 B69:B1048576 J57:J61 N57:N61 R57:R61 F57:F61 B57:B61">
+  <conditionalFormatting sqref="B1:B55 F1:F55 J1:J55 N1:N55 R1:R55 J57:J61 N57:N61 R57:R61 F57:F61 B57:B61 J65:J67 N65:N67 R65:R67 B65:B67 B69:B1048576 F65:F67 F69:F1048576 N69:N1048576 R69:R1048576 J69:J1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ja"</formula>
     </cfRule>

--- a/Documents/Daily_Scrum.xlsx
+++ b/Documents/Daily_Scrum.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05981A30-24A2-478B-A9C6-02A91C03610D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64E31EF-FB62-4CCB-96F6-30D010D1F365}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="87">
   <si>
     <t>Datum</t>
   </si>
@@ -513,6 +513,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,6 +530,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -540,29 +561,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,10 +877,10 @@
   <dimension ref="A1:AM308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P76" sqref="P76"/>
+      <selection pane="bottomRight" activeCell="Y75" sqref="Y75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -909,66 +909,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="48" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="48" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="48" t="s">
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
       <c r="V1" s="36"/>
-      <c r="W1" s="53" t="s">
+      <c r="W1" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53" t="s">
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="53"/>
+      <c r="Z1" s="52"/>
       <c r="AA1" s="37"/>
       <c r="AB1" s="37"/>
       <c r="AC1" s="37"/>
-      <c r="AD1" s="53" t="s">
+      <c r="AD1" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
     </row>
     <row r="2" spans="1:39" s="14" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="52"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
@@ -1030,23 +1030,23 @@
         <v>2</v>
       </c>
       <c r="V2" s="38"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
       <c r="AA2" s="39"/>
       <c r="AB2" s="39"/>
       <c r="AC2" s="39"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10">
@@ -1083,10 +1083,10 @@
       <c r="T3" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="58" t="s">
+      <c r="W3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="58"/>
+      <c r="X3" s="54"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10">
@@ -1128,8 +1128,8 @@
       <c r="T4" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10">
@@ -1166,8 +1166,8 @@
       <c r="T5" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10">
@@ -1203,10 +1203,10 @@
       <c r="T6" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="44" t="s">
+      <c r="W6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="44"/>
+      <c r="X6" s="46"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10">
@@ -1248,40 +1248,40 @@
       <c r="T7" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-    </row>
-    <row r="8" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+    </row>
+    <row r="8" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10">
@@ -1317,10 +1317,10 @@
       <c r="T9" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="W9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="X9" s="44"/>
+      <c r="X9" s="46"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10">
@@ -1353,8 +1353,8 @@
       <c r="T10" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10">
@@ -1393,8 +1393,8 @@
       <c r="T11" t="s">
         <v>48</v>
       </c>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10">
@@ -1433,8 +1433,8 @@
       <c r="T12" t="s">
         <v>48</v>
       </c>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10">
@@ -1470,40 +1470,40 @@
       <c r="T13" t="s">
         <v>48</v>
       </c>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-    </row>
-    <row r="14" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+    </row>
+    <row r="14" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
     </row>
     <row r="15" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="20">
@@ -1559,10 +1559,10 @@
       <c r="T16" t="s">
         <v>50</v>
       </c>
-      <c r="W16" s="44" t="s">
+      <c r="W16" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="X16" s="44"/>
+      <c r="X16" s="46"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10">
@@ -1601,8 +1601,8 @@
       <c r="T17" t="s">
         <v>50</v>
       </c>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10">
@@ -1638,10 +1638,10 @@
       <c r="T18" t="s">
         <v>50</v>
       </c>
-      <c r="W18" s="44" t="s">
+      <c r="W18" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="X18" s="44"/>
+      <c r="X18" s="46"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10">
@@ -1683,40 +1683,40 @@
       <c r="T19" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-    </row>
-    <row r="20" spans="1:30" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+    </row>
+    <row r="20" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
     </row>
     <row r="21" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20">
@@ -1787,10 +1787,10 @@
       <c r="T23" t="s">
         <v>21</v>
       </c>
-      <c r="W23" s="44" t="s">
+      <c r="W23" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="X23" s="44"/>
+      <c r="X23" s="46"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10">
@@ -1820,8 +1820,8 @@
       <c r="T24" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10">
@@ -1854,40 +1854,40 @@
       <c r="T25" t="s">
         <v>21</v>
       </c>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-    </row>
-    <row r="26" spans="1:30" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+    </row>
+    <row r="26" spans="1:30" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10">
@@ -1923,10 +1923,10 @@
       <c r="T27" t="s">
         <v>21</v>
       </c>
-      <c r="W27" s="44" t="s">
+      <c r="W27" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="X27" s="44"/>
+      <c r="X27" s="46"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10">
@@ -1962,8 +1962,8 @@
       <c r="T28" t="s">
         <v>21</v>
       </c>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10">
@@ -2008,8 +2008,8 @@
       <c r="T29" t="s">
         <v>21</v>
       </c>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10">
@@ -2045,8 +2045,8 @@
       <c r="T30" t="s">
         <v>21</v>
       </c>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10">
@@ -2088,40 +2088,40 @@
       <c r="T31" t="s">
         <v>21</v>
       </c>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-    </row>
-    <row r="32" spans="1:30" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+    </row>
+    <row r="32" spans="1:30" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10">
@@ -2157,10 +2157,10 @@
       <c r="T33" t="s">
         <v>21</v>
       </c>
-      <c r="W33" s="44" t="s">
+      <c r="W33" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="X33" s="44"/>
+      <c r="X33" s="46"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10">
@@ -2196,8 +2196,8 @@
       <c r="T34" t="s">
         <v>21</v>
       </c>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10">
@@ -2233,10 +2233,10 @@
       <c r="T35" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="44" t="s">
+      <c r="W35" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X35" s="44"/>
+      <c r="X35" s="46"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10">
@@ -2272,8 +2272,8 @@
       <c r="T36" t="s">
         <v>21</v>
       </c>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10">
@@ -2309,10 +2309,10 @@
       <c r="T37" t="s">
         <v>21</v>
       </c>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-    </row>
-    <row r="38" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+    </row>
+    <row r="38" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10">
         <v>43213</v>
@@ -2347,10 +2347,10 @@
       <c r="T39" t="s">
         <v>21</v>
       </c>
-      <c r="W39" s="44" t="s">
+      <c r="W39" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X39" s="44"/>
+      <c r="X39" s="46"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10">
@@ -2386,8 +2386,8 @@
       <c r="T40" t="s">
         <v>21</v>
       </c>
-      <c r="W40" s="44"/>
-      <c r="X40" s="44"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10">
@@ -2423,15 +2423,15 @@
       <c r="T41" t="s">
         <v>21</v>
       </c>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="60" t="s">
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="Z41" s="60"/>
-      <c r="AA41" s="60"/>
-      <c r="AB41" s="60"/>
-      <c r="AC41" s="60"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="51"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10">
@@ -2467,8 +2467,8 @@
       <c r="T42" t="s">
         <v>21</v>
       </c>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10">
@@ -2504,10 +2504,10 @@
       <c r="T43" t="s">
         <v>21</v>
       </c>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-    </row>
-    <row r="44" spans="1:30" s="55" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+    </row>
+    <row r="44" spans="1:30" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="45" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="29">
         <v>43250</v>
@@ -2592,10 +2592,10 @@
       <c r="T47" t="s">
         <v>21</v>
       </c>
-      <c r="W47" s="44" t="s">
+      <c r="W47" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X47" s="44"/>
+      <c r="X47" s="46"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10">
@@ -2631,8 +2631,8 @@
       <c r="T48" t="s">
         <v>21</v>
       </c>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10">
@@ -2668,40 +2668,40 @@
       <c r="T49" t="s">
         <v>21</v>
       </c>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-    </row>
-    <row r="50" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="55"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="55"/>
-      <c r="Y50" s="55"/>
-      <c r="Z50" s="55"/>
-      <c r="AA50" s="55"/>
-      <c r="AB50" s="55"/>
-      <c r="AC50" s="55"/>
-      <c r="AD50" s="55"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+    </row>
+    <row r="50" spans="1:39" s="45" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="44"/>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10">
@@ -2737,10 +2737,10 @@
       <c r="T51" t="s">
         <v>43</v>
       </c>
-      <c r="W51" s="44" t="s">
+      <c r="W51" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X51" s="44"/>
+      <c r="X51" s="46"/>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10">
@@ -2776,8 +2776,8 @@
       <c r="T52" t="s">
         <v>43</v>
       </c>
-      <c r="W52" s="44"/>
-      <c r="X52" s="44"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10">
@@ -2814,8 +2814,8 @@
       <c r="T53" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46"/>
     </row>
     <row r="54" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="31">
@@ -2867,37 +2867,37 @@
       <c r="R55" s="24"/>
       <c r="U55" s="26"/>
     </row>
-    <row r="56" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
-      <c r="X56" s="46"/>
-      <c r="Y56" s="46"/>
-      <c r="Z56" s="46"/>
-      <c r="AA56" s="46"/>
-      <c r="AB56" s="46"/>
-      <c r="AC56" s="46"/>
-      <c r="AD56" s="46"/>
+    <row r="56" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="48"/>
+      <c r="W56" s="48"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="48"/>
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="48"/>
+      <c r="AB56" s="48"/>
+      <c r="AC56" s="48"/>
+      <c r="AD56" s="48"/>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10">
@@ -2937,22 +2937,22 @@
       <c r="T57" t="s">
         <v>65</v>
       </c>
-      <c r="W57" s="44" t="s">
+      <c r="W57" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X57" s="44"/>
-      <c r="AD57" s="59" t="s">
+      <c r="X57" s="46"/>
+      <c r="AD57" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AE57" s="59"/>
-      <c r="AF57" s="59"/>
-      <c r="AG57" s="59"/>
-      <c r="AH57" s="59"/>
-      <c r="AI57" s="59"/>
-      <c r="AJ57" s="59"/>
-      <c r="AK57" s="59"/>
-      <c r="AL57" s="59"/>
-      <c r="AM57" s="59"/>
+      <c r="AE57" s="50"/>
+      <c r="AF57" s="50"/>
+      <c r="AG57" s="50"/>
+      <c r="AH57" s="50"/>
+      <c r="AI57" s="50"/>
+      <c r="AJ57" s="50"/>
+      <c r="AK57" s="50"/>
+      <c r="AL57" s="50"/>
+      <c r="AM57" s="50"/>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10">
@@ -2989,8 +2989,8 @@
       <c r="T58" t="s">
         <v>65</v>
       </c>
-      <c r="W58" s="44"/>
-      <c r="X58" s="44"/>
+      <c r="W58" s="46"/>
+      <c r="X58" s="46"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10">
@@ -3030,10 +3030,10 @@
       <c r="T59" t="s">
         <v>65</v>
       </c>
-      <c r="W59" s="44" t="s">
+      <c r="W59" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="X59" s="44"/>
+      <c r="X59" s="46"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10">
@@ -3070,8 +3070,8 @@
       <c r="T60" t="s">
         <v>73</v>
       </c>
-      <c r="W60" s="44"/>
-      <c r="X60" s="44"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10">
@@ -3105,40 +3105,40 @@
       <c r="T61" t="s">
         <v>73</v>
       </c>
-      <c r="W61" s="44"/>
-      <c r="X61" s="44"/>
-    </row>
-    <row r="62" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="55"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="55"/>
-      <c r="AA62" s="55"/>
-      <c r="AB62" s="55"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="55"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
+    </row>
+    <row r="62" spans="1:39" s="45" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="44"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="44"/>
+      <c r="X62" s="44"/>
+      <c r="Y62" s="44"/>
+      <c r="Z62" s="44"/>
+      <c r="AA62" s="44"/>
+      <c r="AB62" s="44"/>
+      <c r="AC62" s="44"/>
+      <c r="AD62" s="44"/>
     </row>
     <row r="63" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="29">
@@ -3188,17 +3188,17 @@
       <c r="T65" t="s">
         <v>82</v>
       </c>
-      <c r="W65" s="44" t="s">
+      <c r="W65" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="X65" s="44"/>
-      <c r="Y65" s="45" t="s">
+      <c r="X65" s="46"/>
+      <c r="Y65" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="Z65" s="45"/>
-      <c r="AA65" s="45"/>
-      <c r="AB65" s="45"/>
-      <c r="AC65" s="45"/>
+      <c r="Z65" s="47"/>
+      <c r="AA65" s="47"/>
+      <c r="AB65" s="47"/>
+      <c r="AC65" s="47"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10">
@@ -3235,8 +3235,8 @@
       <c r="T66" t="s">
         <v>82</v>
       </c>
-      <c r="W66" s="44"/>
-      <c r="X66" s="44"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10">
@@ -3273,31 +3273,31 @@
       <c r="T67" t="s">
         <v>82</v>
       </c>
-      <c r="W67" s="44"/>
-      <c r="X67" s="44"/>
-    </row>
-    <row r="68" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="55"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="55"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="55"/>
-      <c r="U68" s="55"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
+    </row>
+    <row r="68" spans="1:39" s="45" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10">
@@ -3334,22 +3334,22 @@
       <c r="T69" t="s">
         <v>82</v>
       </c>
-      <c r="W69" s="44" t="s">
+      <c r="W69" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="X69" s="44"/>
-      <c r="AD69" s="45" t="s">
+      <c r="X69" s="46"/>
+      <c r="AD69" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AE69" s="45"/>
-      <c r="AF69" s="45"/>
-      <c r="AG69" s="45"/>
-      <c r="AH69" s="45"/>
-      <c r="AI69" s="45"/>
-      <c r="AJ69" s="45"/>
-      <c r="AK69" s="45"/>
-      <c r="AL69" s="45"/>
-      <c r="AM69" s="45"/>
+      <c r="AE69" s="47"/>
+      <c r="AF69" s="47"/>
+      <c r="AG69" s="47"/>
+      <c r="AH69" s="47"/>
+      <c r="AI69" s="47"/>
+      <c r="AJ69" s="47"/>
+      <c r="AK69" s="47"/>
+      <c r="AL69" s="47"/>
+      <c r="AM69" s="47"/>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10">
@@ -3386,8 +3386,8 @@
       <c r="T70" t="s">
         <v>82</v>
       </c>
-      <c r="W70" s="44"/>
-      <c r="X70" s="44"/>
+      <c r="W70" s="46"/>
+      <c r="X70" s="46"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10">
@@ -3424,8 +3424,8 @@
       <c r="T71" t="s">
         <v>83</v>
       </c>
-      <c r="W71" s="44"/>
-      <c r="X71" s="44"/>
+      <c r="W71" s="46"/>
+      <c r="X71" s="46"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10">
@@ -3462,8 +3462,8 @@
       <c r="T72" t="s">
         <v>83</v>
       </c>
-      <c r="W72" s="44"/>
-      <c r="X72" s="44"/>
+      <c r="W72" s="46"/>
+      <c r="X72" s="46"/>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10">
@@ -3500,8 +3500,8 @@
       <c r="T73" t="s">
         <v>83</v>
       </c>
-      <c r="W73" s="44"/>
-      <c r="X73" s="44"/>
+      <c r="W73" s="46"/>
+      <c r="X73" s="46"/>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="D74" s="41"/>
@@ -3538,10 +3538,10 @@
       <c r="R75" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W75" s="44" t="s">
+      <c r="W75" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="X75" s="44"/>
+      <c r="X75" s="46"/>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10">
@@ -3564,8 +3564,8 @@
       <c r="R76" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W76" s="44"/>
-      <c r="X76" s="44"/>
+      <c r="W76" s="46"/>
+      <c r="X76" s="46"/>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10">
@@ -3588,8 +3588,8 @@
       <c r="R77" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W77" s="44"/>
-      <c r="X77" s="44"/>
+      <c r="W77" s="46"/>
+      <c r="X77" s="46"/>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10">
@@ -3612,8 +3612,8 @@
       <c r="R78" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W78" s="44"/>
-      <c r="X78" s="44"/>
+      <c r="W78" s="46"/>
+      <c r="X78" s="46"/>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10">
@@ -3636,8 +3636,8 @@
       <c r="R79" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W79" s="44"/>
-      <c r="X79" s="44"/>
+      <c r="W79" s="46"/>
+      <c r="X79" s="46"/>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" s="41"/>
@@ -3668,10 +3668,10 @@
       <c r="R81" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W81" s="44" t="s">
+      <c r="W81" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="X81" s="44"/>
+      <c r="X81" s="46"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10">
@@ -3694,8 +3694,8 @@
       <c r="R82" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W82" s="44"/>
-      <c r="X82" s="44"/>
+      <c r="W82" s="46"/>
+      <c r="X82" s="46"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10">
@@ -3718,8 +3718,8 @@
       <c r="R83" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W83" s="44"/>
-      <c r="X83" s="44"/>
+      <c r="W83" s="46"/>
+      <c r="X83" s="46"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10">
@@ -3742,8 +3742,8 @@
       <c r="R84" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W84" s="44"/>
-      <c r="X84" s="44"/>
+      <c r="W84" s="46"/>
+      <c r="X84" s="46"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10">
@@ -3766,17 +3766,15 @@
       <c r="R85" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W85" s="44"/>
-      <c r="X85" s="44"/>
+      <c r="W85" s="46"/>
+      <c r="X85" s="46"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10"/>
       <c r="D86" s="41"/>
       <c r="E86" s="18"/>
       <c r="F86" s="5"/>
-      <c r="J86" s="43" t="s">
-        <v>24</v>
-      </c>
+      <c r="J86" s="43"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="4"/>
@@ -4507,32 +4505,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A62:XFD62"/>
-    <mergeCell ref="A68:XFD68"/>
-    <mergeCell ref="W59:X61"/>
-    <mergeCell ref="W69:X73"/>
-    <mergeCell ref="W65:X67"/>
-    <mergeCell ref="Y65:AC65"/>
-    <mergeCell ref="W57:X58"/>
-    <mergeCell ref="W51:X53"/>
-    <mergeCell ref="W47:X49"/>
-    <mergeCell ref="W39:X43"/>
-    <mergeCell ref="W35:X37"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A50:XFD50"/>
-    <mergeCell ref="A56:XFD56"/>
-    <mergeCell ref="A38:XFD38"/>
-    <mergeCell ref="AD57:AM57"/>
-    <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="AD1:AM2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="W9:X13"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="W75:X79"/>
     <mergeCell ref="W81:X85"/>
     <mergeCell ref="AD69:AM69"/>
@@ -4549,6 +4521,32 @@
     <mergeCell ref="W23:X25"/>
     <mergeCell ref="W18:X19"/>
     <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="AD1:AM2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="W9:X13"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="W57:X58"/>
+    <mergeCell ref="W51:X53"/>
+    <mergeCell ref="W47:X49"/>
+    <mergeCell ref="W39:X43"/>
+    <mergeCell ref="W35:X37"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A50:XFD50"/>
+    <mergeCell ref="A56:XFD56"/>
+    <mergeCell ref="A38:XFD38"/>
+    <mergeCell ref="AD57:AM57"/>
+    <mergeCell ref="Y41:AC41"/>
+    <mergeCell ref="A62:XFD62"/>
+    <mergeCell ref="A68:XFD68"/>
+    <mergeCell ref="W59:X61"/>
+    <mergeCell ref="W69:X73"/>
+    <mergeCell ref="W65:X67"/>
+    <mergeCell ref="Y65:AC65"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B55 F1:F55 J1:J55 N1:N55 R1:R55 J57:J61 N57:N61 R57:R61 F57:F61 B57:B61 J65:J67 N65:N67 R65:R67 B65:B67 B69:B1048576 F65:F67 F69:F1048576 N69:N1048576 R69:R1048576 J69:J1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/Documents/Daily_Scrum.xlsx
+++ b/Documents/Daily_Scrum.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64E31EF-FB62-4CCB-96F6-30D010D1F365}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD03FD0-B146-4FE9-A10D-F0E16333D660}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="97">
   <si>
     <t>Datum</t>
   </si>
@@ -281,6 +281,36 @@
   </si>
   <si>
     <t>in Einstellungen: Gui fürs anpassen der Benutzerdaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veranstalter App GUI </t>
+  </si>
+  <si>
+    <t>Veranstalter App GUI</t>
+  </si>
+  <si>
+    <t>Webservice Veranstalter App</t>
+  </si>
+  <si>
+    <t>Organisation das alles geht (Übersicht was noch zu machen ist, wo noch Sachen zum Ausbessern sind)</t>
+  </si>
+  <si>
+    <t>erklärt Kumnig und Rajic das Webservice</t>
+  </si>
+  <si>
+    <t>Webservice Änderung</t>
+  </si>
+  <si>
+    <t>Kleine Bugfixes beheben &amp; Code strukturieren</t>
+  </si>
+  <si>
+    <t>Präsentation vorbereiten</t>
+  </si>
+  <si>
+    <t>Hilfe beim Feinschliff</t>
+  </si>
+  <si>
+    <t>Bugfixing mit Kandut</t>
   </si>
 </sst>
 </file>
@@ -513,12 +543,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,21 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,8 +570,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,10 +907,10 @@
   <dimension ref="A1:AM308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y75" sqref="Y75"/>
+      <selection pane="bottomRight" activeCell="Y82" sqref="Y82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -909,66 +939,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="55" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="55" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="55" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="55" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
       <c r="V1" s="36"/>
-      <c r="W1" s="52" t="s">
+      <c r="W1" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52" t="s">
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="52"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="37"/>
       <c r="AB1" s="37"/>
       <c r="AC1" s="37"/>
-      <c r="AD1" s="52" t="s">
+      <c r="AD1" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
     </row>
     <row r="2" spans="1:39" s="14" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="59"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
@@ -1030,23 +1060,23 @@
         <v>2</v>
       </c>
       <c r="V2" s="38"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
       <c r="AA2" s="39"/>
       <c r="AB2" s="39"/>
       <c r="AC2" s="39"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10">
@@ -1083,10 +1113,10 @@
       <c r="T3" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="54" t="s">
+      <c r="W3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="54"/>
+      <c r="X3" s="58"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10">
@@ -1128,8 +1158,8 @@
       <c r="T4" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10">
@@ -1166,8 +1196,8 @@
       <c r="T5" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10">
@@ -1203,10 +1233,10 @@
       <c r="T6" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="46" t="s">
+      <c r="W6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="46"/>
+      <c r="X6" s="44"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10">
@@ -1248,40 +1278,40 @@
       <c r="T7" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-    </row>
-    <row r="8" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+    </row>
+    <row r="8" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10">
@@ -1317,10 +1347,10 @@
       <c r="T9" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="46" t="s">
+      <c r="W9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="X9" s="46"/>
+      <c r="X9" s="44"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10">
@@ -1353,8 +1383,8 @@
       <c r="T10" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10">
@@ -1393,8 +1423,8 @@
       <c r="T11" t="s">
         <v>48</v>
       </c>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10">
@@ -1433,8 +1463,8 @@
       <c r="T12" t="s">
         <v>48</v>
       </c>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10">
@@ -1470,40 +1500,40 @@
       <c r="T13" t="s">
         <v>48</v>
       </c>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-    </row>
-    <row r="14" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+    </row>
+    <row r="14" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
     </row>
     <row r="15" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="20">
@@ -1559,10 +1589,10 @@
       <c r="T16" t="s">
         <v>50</v>
       </c>
-      <c r="W16" s="46" t="s">
+      <c r="W16" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="X16" s="46"/>
+      <c r="X16" s="44"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10">
@@ -1601,8 +1631,8 @@
       <c r="T17" t="s">
         <v>50</v>
       </c>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10">
@@ -1638,10 +1668,10 @@
       <c r="T18" t="s">
         <v>50</v>
       </c>
-      <c r="W18" s="46" t="s">
+      <c r="W18" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="X18" s="46"/>
+      <c r="X18" s="44"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10">
@@ -1683,40 +1713,40 @@
       <c r="T19" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-    </row>
-    <row r="20" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+    </row>
+    <row r="20" spans="1:30" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
     </row>
     <row r="21" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20">
@@ -1787,10 +1817,10 @@
       <c r="T23" t="s">
         <v>21</v>
       </c>
-      <c r="W23" s="46" t="s">
+      <c r="W23" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="X23" s="46"/>
+      <c r="X23" s="44"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10">
@@ -1820,8 +1850,8 @@
       <c r="T24" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10">
@@ -1854,40 +1884,40 @@
       <c r="T25" t="s">
         <v>21</v>
       </c>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-    </row>
-    <row r="26" spans="1:30" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+    </row>
+    <row r="26" spans="1:30" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10">
@@ -1923,10 +1953,10 @@
       <c r="T27" t="s">
         <v>21</v>
       </c>
-      <c r="W27" s="46" t="s">
+      <c r="W27" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="X27" s="46"/>
+      <c r="X27" s="44"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10">
@@ -1962,8 +1992,8 @@
       <c r="T28" t="s">
         <v>21</v>
       </c>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10">
@@ -2008,8 +2038,8 @@
       <c r="T29" t="s">
         <v>21</v>
       </c>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10">
@@ -2045,8 +2075,8 @@
       <c r="T30" t="s">
         <v>21</v>
       </c>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10">
@@ -2088,40 +2118,40 @@
       <c r="T31" t="s">
         <v>21</v>
       </c>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-    </row>
-    <row r="32" spans="1:30" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+    </row>
+    <row r="32" spans="1:30" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10">
@@ -2157,10 +2187,10 @@
       <c r="T33" t="s">
         <v>21</v>
       </c>
-      <c r="W33" s="46" t="s">
+      <c r="W33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="X33" s="46"/>
+      <c r="X33" s="44"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10">
@@ -2196,8 +2226,8 @@
       <c r="T34" t="s">
         <v>21</v>
       </c>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10">
@@ -2233,10 +2263,10 @@
       <c r="T35" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="46" t="s">
+      <c r="W35" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X35" s="46"/>
+      <c r="X35" s="44"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10">
@@ -2272,8 +2302,8 @@
       <c r="T36" t="s">
         <v>21</v>
       </c>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10">
@@ -2309,10 +2339,10 @@
       <c r="T37" t="s">
         <v>21</v>
       </c>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-    </row>
-    <row r="38" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+    </row>
+    <row r="38" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10">
         <v>43213</v>
@@ -2347,10 +2377,10 @@
       <c r="T39" t="s">
         <v>21</v>
       </c>
-      <c r="W39" s="46" t="s">
+      <c r="W39" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X39" s="46"/>
+      <c r="X39" s="44"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10">
@@ -2386,8 +2416,8 @@
       <c r="T40" t="s">
         <v>21</v>
       </c>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10">
@@ -2423,15 +2453,15 @@
       <c r="T41" t="s">
         <v>21</v>
       </c>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="51" t="s">
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10">
@@ -2467,8 +2497,8 @@
       <c r="T42" t="s">
         <v>21</v>
       </c>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10">
@@ -2504,10 +2534,10 @@
       <c r="T43" t="s">
         <v>21</v>
       </c>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-    </row>
-    <row r="44" spans="1:30" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+    </row>
+    <row r="44" spans="1:30" s="55" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="45" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="29">
         <v>43250</v>
@@ -2592,10 +2622,10 @@
       <c r="T47" t="s">
         <v>21</v>
       </c>
-      <c r="W47" s="46" t="s">
+      <c r="W47" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X47" s="46"/>
+      <c r="X47" s="44"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10">
@@ -2631,8 +2661,8 @@
       <c r="T48" t="s">
         <v>21</v>
       </c>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10">
@@ -2668,40 +2698,40 @@
       <c r="T49" t="s">
         <v>21</v>
       </c>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-    </row>
-    <row r="50" spans="1:39" s="45" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="44"/>
-      <c r="AA50" s="44"/>
-      <c r="AB50" s="44"/>
-      <c r="AC50" s="44"/>
-      <c r="AD50" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+    </row>
+    <row r="50" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="55"/>
+      <c r="Y50" s="55"/>
+      <c r="Z50" s="55"/>
+      <c r="AA50" s="55"/>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="55"/>
+      <c r="AD50" s="55"/>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10">
@@ -2737,10 +2767,10 @@
       <c r="T51" t="s">
         <v>43</v>
       </c>
-      <c r="W51" s="46" t="s">
+      <c r="W51" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X51" s="46"/>
+      <c r="X51" s="44"/>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10">
@@ -2776,8 +2806,8 @@
       <c r="T52" t="s">
         <v>43</v>
       </c>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="44"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10">
@@ -2814,8 +2844,8 @@
       <c r="T53" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="46"/>
-      <c r="X53" s="46"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="44"/>
     </row>
     <row r="54" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="31">
@@ -2867,37 +2897,37 @@
       <c r="R55" s="24"/>
       <c r="U55" s="26"/>
     </row>
-    <row r="56" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="48"/>
-      <c r="U56" s="48"/>
-      <c r="V56" s="48"/>
-      <c r="W56" s="48"/>
-      <c r="X56" s="48"/>
-      <c r="Y56" s="48"/>
-      <c r="Z56" s="48"/>
-      <c r="AA56" s="48"/>
-      <c r="AB56" s="48"/>
-      <c r="AC56" s="48"/>
-      <c r="AD56" s="48"/>
+    <row r="56" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="46"/>
+      <c r="AB56" s="46"/>
+      <c r="AC56" s="46"/>
+      <c r="AD56" s="46"/>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10">
@@ -2937,22 +2967,22 @@
       <c r="T57" t="s">
         <v>65</v>
       </c>
-      <c r="W57" s="46" t="s">
+      <c r="W57" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X57" s="46"/>
-      <c r="AD57" s="50" t="s">
+      <c r="X57" s="44"/>
+      <c r="AD57" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="AE57" s="50"/>
-      <c r="AF57" s="50"/>
-      <c r="AG57" s="50"/>
-      <c r="AH57" s="50"/>
-      <c r="AI57" s="50"/>
-      <c r="AJ57" s="50"/>
-      <c r="AK57" s="50"/>
-      <c r="AL57" s="50"/>
-      <c r="AM57" s="50"/>
+      <c r="AE57" s="59"/>
+      <c r="AF57" s="59"/>
+      <c r="AG57" s="59"/>
+      <c r="AH57" s="59"/>
+      <c r="AI57" s="59"/>
+      <c r="AJ57" s="59"/>
+      <c r="AK57" s="59"/>
+      <c r="AL57" s="59"/>
+      <c r="AM57" s="59"/>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10">
@@ -2989,8 +3019,8 @@
       <c r="T58" t="s">
         <v>65</v>
       </c>
-      <c r="W58" s="46"/>
-      <c r="X58" s="46"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10">
@@ -3030,10 +3060,10 @@
       <c r="T59" t="s">
         <v>65</v>
       </c>
-      <c r="W59" s="46" t="s">
+      <c r="W59" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="X59" s="46"/>
+      <c r="X59" s="44"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10">
@@ -3070,8 +3100,8 @@
       <c r="T60" t="s">
         <v>73</v>
       </c>
-      <c r="W60" s="46"/>
-      <c r="X60" s="46"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="44"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10">
@@ -3105,40 +3135,40 @@
       <c r="T61" t="s">
         <v>73</v>
       </c>
-      <c r="W61" s="46"/>
-      <c r="X61" s="46"/>
-    </row>
-    <row r="62" spans="1:39" s="45" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="44"/>
-      <c r="S62" s="44"/>
-      <c r="T62" s="44"/>
-      <c r="U62" s="44"/>
-      <c r="V62" s="44"/>
-      <c r="W62" s="44"/>
-      <c r="X62" s="44"/>
-      <c r="Y62" s="44"/>
-      <c r="Z62" s="44"/>
-      <c r="AA62" s="44"/>
-      <c r="AB62" s="44"/>
-      <c r="AC62" s="44"/>
-      <c r="AD62" s="44"/>
+      <c r="W61" s="44"/>
+      <c r="X61" s="44"/>
+    </row>
+    <row r="62" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
+      <c r="Z62" s="55"/>
+      <c r="AA62" s="55"/>
+      <c r="AB62" s="55"/>
+      <c r="AC62" s="55"/>
+      <c r="AD62" s="55"/>
     </row>
     <row r="63" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="29">
@@ -3188,17 +3218,17 @@
       <c r="T65" t="s">
         <v>82</v>
       </c>
-      <c r="W65" s="46" t="s">
+      <c r="W65" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="X65" s="46"/>
-      <c r="Y65" s="47" t="s">
+      <c r="X65" s="44"/>
+      <c r="Y65" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="Z65" s="47"/>
-      <c r="AA65" s="47"/>
-      <c r="AB65" s="47"/>
-      <c r="AC65" s="47"/>
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="45"/>
+      <c r="AB65" s="45"/>
+      <c r="AC65" s="45"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10">
@@ -3235,8 +3265,8 @@
       <c r="T66" t="s">
         <v>82</v>
       </c>
-      <c r="W66" s="46"/>
-      <c r="X66" s="46"/>
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10">
@@ -3273,31 +3303,31 @@
       <c r="T67" t="s">
         <v>82</v>
       </c>
-      <c r="W67" s="46"/>
-      <c r="X67" s="46"/>
-    </row>
-    <row r="68" spans="1:39" s="45" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="44"/>
-      <c r="P68" s="44"/>
-      <c r="Q68" s="44"/>
-      <c r="R68" s="44"/>
-      <c r="S68" s="44"/>
-      <c r="T68" s="44"/>
-      <c r="U68" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+    </row>
+    <row r="68" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="55"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="55"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="55"/>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10">
@@ -3334,22 +3364,22 @@
       <c r="T69" t="s">
         <v>82</v>
       </c>
-      <c r="W69" s="46" t="s">
+      <c r="W69" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="X69" s="46"/>
-      <c r="AD69" s="47" t="s">
+      <c r="X69" s="44"/>
+      <c r="AD69" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="AE69" s="47"/>
-      <c r="AF69" s="47"/>
-      <c r="AG69" s="47"/>
-      <c r="AH69" s="47"/>
-      <c r="AI69" s="47"/>
-      <c r="AJ69" s="47"/>
-      <c r="AK69" s="47"/>
-      <c r="AL69" s="47"/>
-      <c r="AM69" s="47"/>
+      <c r="AE69" s="45"/>
+      <c r="AF69" s="45"/>
+      <c r="AG69" s="45"/>
+      <c r="AH69" s="45"/>
+      <c r="AI69" s="45"/>
+      <c r="AJ69" s="45"/>
+      <c r="AK69" s="45"/>
+      <c r="AL69" s="45"/>
+      <c r="AM69" s="45"/>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10">
@@ -3386,8 +3416,8 @@
       <c r="T70" t="s">
         <v>82</v>
       </c>
-      <c r="W70" s="46"/>
-      <c r="X70" s="46"/>
+      <c r="W70" s="44"/>
+      <c r="X70" s="44"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10">
@@ -3424,8 +3454,8 @@
       <c r="T71" t="s">
         <v>83</v>
       </c>
-      <c r="W71" s="46"/>
-      <c r="X71" s="46"/>
+      <c r="W71" s="44"/>
+      <c r="X71" s="44"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10">
@@ -3462,8 +3492,8 @@
       <c r="T72" t="s">
         <v>83</v>
       </c>
-      <c r="W72" s="46"/>
-      <c r="X72" s="46"/>
+      <c r="W72" s="44"/>
+      <c r="X72" s="44"/>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10">
@@ -3500,8 +3530,8 @@
       <c r="T73" t="s">
         <v>83</v>
       </c>
-      <c r="W73" s="46"/>
-      <c r="X73" s="46"/>
+      <c r="W73" s="44"/>
+      <c r="X73" s="44"/>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="D74" s="41"/>
@@ -3518,13 +3548,21 @@
       <c r="B75" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="41"/>
+      <c r="D75" s="43" t="s">
+        <v>87</v>
+      </c>
       <c r="E75" s="18"/>
       <c r="F75" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="H75" t="s">
+        <v>90</v>
+      </c>
       <c r="J75" s="43" t="s">
         <v>24</v>
+      </c>
+      <c r="L75" t="s">
+        <v>91</v>
       </c>
       <c r="N75" s="42" t="s">
         <v>24</v>
@@ -3538,10 +3576,13 @@
       <c r="R75" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W75" s="46" t="s">
+      <c r="T75" t="s">
+        <v>89</v>
+      </c>
+      <c r="W75" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="X75" s="46"/>
+      <c r="X75" s="44"/>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10">
@@ -3550,22 +3591,36 @@
       <c r="B76" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="41"/>
+      <c r="D76" s="43" t="s">
+        <v>87</v>
+      </c>
       <c r="E76" s="18"/>
       <c r="F76" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="H76" t="s">
+        <v>90</v>
+      </c>
       <c r="J76" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="L76" t="s">
+        <v>91</v>
+      </c>
       <c r="N76" s="42" t="s">
         <v>24</v>
       </c>
+      <c r="P76" t="s">
+        <v>89</v>
+      </c>
       <c r="R76" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W76" s="46"/>
-      <c r="X76" s="46"/>
+      <c r="T76" t="s">
+        <v>89</v>
+      </c>
+      <c r="W76" s="44"/>
+      <c r="X76" s="44"/>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10">
@@ -3574,22 +3629,36 @@
       <c r="B77" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="41"/>
+      <c r="D77" s="43" t="s">
+        <v>87</v>
+      </c>
       <c r="E77" s="40"/>
       <c r="F77" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="H77" t="s">
+        <v>90</v>
+      </c>
       <c r="J77" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="L77" t="s">
+        <v>91</v>
+      </c>
       <c r="N77" s="42" t="s">
         <v>24</v>
       </c>
+      <c r="P77" t="s">
+        <v>89</v>
+      </c>
       <c r="R77" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W77" s="46"/>
-      <c r="X77" s="46"/>
+      <c r="T77" t="s">
+        <v>89</v>
+      </c>
+      <c r="W77" s="44"/>
+      <c r="X77" s="44"/>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10">
@@ -3598,22 +3667,36 @@
       <c r="B78" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D78" s="41"/>
+      <c r="D78" s="43" t="s">
+        <v>87</v>
+      </c>
       <c r="E78" s="18"/>
       <c r="F78" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="H78" t="s">
+        <v>90</v>
+      </c>
       <c r="J78" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="L78" t="s">
+        <v>91</v>
+      </c>
       <c r="N78" s="42" t="s">
         <v>24</v>
       </c>
+      <c r="P78" t="s">
+        <v>89</v>
+      </c>
       <c r="R78" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W78" s="46"/>
-      <c r="X78" s="46"/>
+      <c r="T78" t="s">
+        <v>89</v>
+      </c>
+      <c r="W78" s="44"/>
+      <c r="X78" s="44"/>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10">
@@ -3622,22 +3705,36 @@
       <c r="B79" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="41"/>
+      <c r="D79" s="43" t="s">
+        <v>87</v>
+      </c>
       <c r="E79" s="18"/>
       <c r="F79" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="H79" t="s">
+        <v>90</v>
+      </c>
       <c r="J79" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="L79" t="s">
+        <v>92</v>
+      </c>
       <c r="N79" s="42" t="s">
         <v>24</v>
       </c>
+      <c r="P79" t="s">
+        <v>89</v>
+      </c>
       <c r="R79" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W79" s="46"/>
-      <c r="X79" s="46"/>
+      <c r="T79" t="s">
+        <v>89</v>
+      </c>
+      <c r="W79" s="44"/>
+      <c r="X79" s="44"/>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" s="41"/>
@@ -3654,24 +3751,38 @@
       <c r="B81" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="41"/>
+      <c r="D81" s="43" t="s">
+        <v>88</v>
+      </c>
       <c r="E81" s="40"/>
       <c r="F81" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="H81" t="s">
+        <v>90</v>
+      </c>
       <c r="J81" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="L81" t="s">
+        <v>78</v>
+      </c>
       <c r="N81" s="42" t="s">
         <v>24</v>
       </c>
+      <c r="P81" t="s">
+        <v>89</v>
+      </c>
       <c r="R81" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W81" s="46" t="s">
+      <c r="T81" t="s">
+        <v>89</v>
+      </c>
+      <c r="W81" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="X81" s="46"/>
+      <c r="X81" s="44"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10">
@@ -3680,22 +3791,36 @@
       <c r="B82" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="41"/>
+      <c r="D82" s="43" t="s">
+        <v>88</v>
+      </c>
       <c r="E82" s="18"/>
       <c r="F82" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="H82" t="s">
+        <v>90</v>
+      </c>
       <c r="J82" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="L82" t="s">
+        <v>78</v>
+      </c>
       <c r="N82" s="42" t="s">
         <v>24</v>
       </c>
+      <c r="P82" t="s">
+        <v>89</v>
+      </c>
       <c r="R82" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W82" s="46"/>
-      <c r="X82" s="46"/>
+      <c r="T82" t="s">
+        <v>89</v>
+      </c>
+      <c r="W82" s="44"/>
+      <c r="X82" s="44"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10">
@@ -3704,22 +3829,36 @@
       <c r="B83" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="41"/>
+      <c r="D83" s="43" t="s">
+        <v>88</v>
+      </c>
       <c r="E83" s="18"/>
       <c r="F83" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="H83" t="s">
+        <v>90</v>
+      </c>
       <c r="J83" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="L83" t="s">
+        <v>78</v>
+      </c>
       <c r="N83" s="42" t="s">
         <v>24</v>
       </c>
+      <c r="P83" t="s">
+        <v>89</v>
+      </c>
       <c r="R83" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W83" s="46"/>
-      <c r="X83" s="46"/>
+      <c r="T83" t="s">
+        <v>89</v>
+      </c>
+      <c r="W83" s="44"/>
+      <c r="X83" s="44"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10">
@@ -3728,22 +3867,36 @@
       <c r="B84" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="41"/>
+      <c r="D84" s="43" t="s">
+        <v>88</v>
+      </c>
       <c r="E84" s="18"/>
       <c r="F84" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="H84" t="s">
+        <v>90</v>
+      </c>
       <c r="J84" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="L84" t="s">
+        <v>78</v>
+      </c>
       <c r="N84" s="42" t="s">
         <v>24</v>
       </c>
+      <c r="P84" t="s">
+        <v>89</v>
+      </c>
       <c r="R84" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W84" s="46"/>
-      <c r="X84" s="46"/>
+      <c r="T84" t="s">
+        <v>89</v>
+      </c>
+      <c r="W84" s="44"/>
+      <c r="X84" s="44"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10">
@@ -3752,22 +3905,36 @@
       <c r="B85" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="41"/>
+      <c r="D85" s="43" t="s">
+        <v>88</v>
+      </c>
       <c r="E85" s="40"/>
       <c r="F85" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="H85" t="s">
+        <v>90</v>
+      </c>
       <c r="J85" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="L85" t="s">
+        <v>78</v>
+      </c>
       <c r="N85" s="42" t="s">
         <v>24</v>
       </c>
+      <c r="P85" t="s">
+        <v>89</v>
+      </c>
       <c r="R85" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W85" s="46"/>
-      <c r="X85" s="46"/>
+      <c r="T85" t="s">
+        <v>89</v>
+      </c>
+      <c r="W85" s="44"/>
+      <c r="X85" s="44"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10"/>
@@ -3777,20 +3944,120 @@
       <c r="J86" s="43"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="4"/>
-      <c r="D87" s="41"/>
+      <c r="A87" s="10">
+        <v>43269</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="E87" s="18"/>
-      <c r="F87" s="5"/>
+      <c r="F87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L87" t="s">
+        <v>96</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P87" t="s">
+        <v>94</v>
+      </c>
+      <c r="R87" t="s">
+        <v>24</v>
+      </c>
+      <c r="T87" t="s">
+        <v>94</v>
+      </c>
+      <c r="W87" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="X87" s="44"/>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="D88" s="41"/>
+      <c r="A88" s="10">
+        <v>43270</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="E88" s="18"/>
-      <c r="F88" s="5"/>
+      <c r="F88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s">
+        <v>94</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L88" t="s">
+        <v>94</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P88" t="s">
+        <v>95</v>
+      </c>
+      <c r="R88" t="s">
+        <v>24</v>
+      </c>
+      <c r="T88" t="s">
+        <v>94</v>
+      </c>
+      <c r="W88" s="44"/>
+      <c r="X88" s="44"/>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="D89" s="41"/>
+      <c r="A89" s="10">
+        <v>43271</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="E89" s="40"/>
-      <c r="F89" s="4"/>
+      <c r="F89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" t="s">
+        <v>94</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L89" t="s">
+        <v>94</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P89" t="s">
+        <v>95</v>
+      </c>
+      <c r="R89" t="s">
+        <v>24</v>
+      </c>
+      <c r="T89" t="s">
+        <v>95</v>
+      </c>
+      <c r="W89" s="44"/>
+      <c r="X89" s="44"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="D90" s="41"/>
@@ -4504,7 +4771,34 @@
       <c r="D308" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
+    <mergeCell ref="W87:X89"/>
+    <mergeCell ref="A62:XFD62"/>
+    <mergeCell ref="A68:XFD68"/>
+    <mergeCell ref="W59:X61"/>
+    <mergeCell ref="W69:X73"/>
+    <mergeCell ref="W65:X67"/>
+    <mergeCell ref="Y65:AC65"/>
+    <mergeCell ref="W57:X58"/>
+    <mergeCell ref="W51:X53"/>
+    <mergeCell ref="W47:X49"/>
+    <mergeCell ref="W39:X43"/>
+    <mergeCell ref="W35:X37"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A50:XFD50"/>
+    <mergeCell ref="A56:XFD56"/>
+    <mergeCell ref="A38:XFD38"/>
+    <mergeCell ref="AD57:AM57"/>
+    <mergeCell ref="Y41:AC41"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="AD1:AM2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="W9:X13"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="W75:X79"/>
     <mergeCell ref="W81:X85"/>
     <mergeCell ref="AD69:AM69"/>
@@ -4521,34 +4815,8 @@
     <mergeCell ref="W23:X25"/>
     <mergeCell ref="W18:X19"/>
     <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="AD1:AM2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="W9:X13"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="W57:X58"/>
-    <mergeCell ref="W51:X53"/>
-    <mergeCell ref="W47:X49"/>
-    <mergeCell ref="W39:X43"/>
-    <mergeCell ref="W35:X37"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A50:XFD50"/>
-    <mergeCell ref="A56:XFD56"/>
-    <mergeCell ref="A38:XFD38"/>
-    <mergeCell ref="AD57:AM57"/>
-    <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="A62:XFD62"/>
-    <mergeCell ref="A68:XFD68"/>
-    <mergeCell ref="W59:X61"/>
-    <mergeCell ref="W69:X73"/>
-    <mergeCell ref="W65:X67"/>
-    <mergeCell ref="Y65:AC65"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B55 F1:F55 J1:J55 N1:N55 R1:R55 J57:J61 N57:N61 R57:R61 F57:F61 B57:B61 J65:J67 N65:N67 R65:R67 B65:B67 B69:B1048576 F65:F67 F69:F1048576 N69:N1048576 R69:R1048576 J69:J1048576">
+  <conditionalFormatting sqref="B1:B55 F1:F55 J1:J55 N1:N55 R1:R55 J57:J61 N57:N61 R57:R61 F57:F61 B57:B61 J65:J67 N65:N67 R65:R67 B65:B67 F65:F67 B69:B1048576 F69:F1048576 J69:J1048576 N69:N1048576 R69:R1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ja"</formula>
     </cfRule>

--- a/Documents/Daily_Scrum.xlsx
+++ b/Documents/Daily_Scrum.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD03FD0-B146-4FE9-A10D-F0E16333D660}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8612A1-DC0C-4024-9ECD-F48C80F11796}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="98">
   <si>
     <t>Datum</t>
   </si>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>Bugfixing mit Kandut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI Grobstrukturen in den einzelnen Fragments erstellen
+</t>
   </si>
 </sst>
 </file>
@@ -448,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -544,9 +548,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,6 +570,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,29 +592,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,10 +914,10 @@
   <dimension ref="A1:AM308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y82" sqref="Y82"/>
+      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -921,7 +928,7 @@
     <col min="4" max="4" width="42.26171875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.68359375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.41796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.62890625" customWidth="1"/>
     <col min="8" max="8" width="35.68359375" customWidth="1"/>
     <col min="9" max="9" width="9.68359375" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.9453125" bestFit="1" customWidth="1"/>
@@ -939,66 +946,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="48" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="48" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="48" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
       <c r="V1" s="36"/>
-      <c r="W1" s="53" t="s">
+      <c r="W1" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53" t="s">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="53"/>
+      <c r="Z1" s="45"/>
       <c r="AA1" s="37"/>
       <c r="AB1" s="37"/>
       <c r="AC1" s="37"/>
-      <c r="AD1" s="53" t="s">
+      <c r="AD1" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
     </row>
     <row r="2" spans="1:39" s="14" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="52"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
@@ -1060,23 +1067,23 @@
         <v>2</v>
       </c>
       <c r="V2" s="38"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
       <c r="AA2" s="39"/>
       <c r="AB2" s="39"/>
       <c r="AC2" s="39"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10">
@@ -1113,10 +1120,10 @@
       <c r="T3" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="58" t="s">
+      <c r="W3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="58"/>
+      <c r="X3" s="53"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10">
@@ -1158,8 +1165,8 @@
       <c r="T4" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10">
@@ -1196,8 +1203,8 @@
       <c r="T5" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10">
@@ -1233,10 +1240,10 @@
       <c r="T6" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="44" t="s">
+      <c r="W6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="44"/>
+      <c r="X6" s="47"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10">
@@ -1272,46 +1279,43 @@
       <c r="R7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S7" t="s">
-        <v>22</v>
-      </c>
       <c r="T7" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-    </row>
-    <row r="8" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+    </row>
+    <row r="8" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10">
@@ -1338,19 +1342,25 @@
       <c r="N9" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="P9" t="s">
         <v>48</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="S9" t="s">
+        <v>22</v>
+      </c>
       <c r="T9" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="W9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="X9" s="44"/>
+      <c r="X9" s="47"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10">
@@ -1383,8 +1393,8 @@
       <c r="T10" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10">
@@ -1423,8 +1433,8 @@
       <c r="T11" t="s">
         <v>48</v>
       </c>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10">
@@ -1463,8 +1473,8 @@
       <c r="T12" t="s">
         <v>48</v>
       </c>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10">
@@ -1500,40 +1510,40 @@
       <c r="T13" t="s">
         <v>48</v>
       </c>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-    </row>
-    <row r="14" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+    </row>
+    <row r="14" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
     </row>
     <row r="15" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="20">
@@ -1577,6 +1587,9 @@
       <c r="N16" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O16" t="s">
+        <v>48</v>
+      </c>
       <c r="P16" t="s">
         <v>49</v>
       </c>
@@ -1586,13 +1599,16 @@
       <c r="R16" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="S16" t="s">
+        <v>48</v>
+      </c>
       <c r="T16" t="s">
         <v>50</v>
       </c>
-      <c r="W16" s="44" t="s">
+      <c r="W16" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="X16" s="44"/>
+      <c r="X16" s="47"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10">
@@ -1613,7 +1629,7 @@
       <c r="J17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -1631,8 +1647,8 @@
       <c r="T17" t="s">
         <v>50</v>
       </c>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10">
@@ -1653,6 +1669,9 @@
       <c r="J18" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
       <c r="N18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1668,10 +1687,10 @@
       <c r="T18" t="s">
         <v>50</v>
       </c>
-      <c r="W18" s="44" t="s">
+      <c r="W18" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="X18" s="44"/>
+      <c r="X18" s="47"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10">
@@ -1695,6 +1714,9 @@
       <c r="J19" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="K19" s="44" t="s">
+        <v>23</v>
+      </c>
       <c r="L19" t="s">
         <v>20</v>
       </c>
@@ -1713,40 +1735,40 @@
       <c r="T19" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-    </row>
-    <row r="20" spans="1:30" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+    </row>
+    <row r="20" spans="1:30" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
     </row>
     <row r="21" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20">
@@ -1808,19 +1830,25 @@
       <c r="N23" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O23" t="s">
+        <v>49</v>
+      </c>
       <c r="P23" t="s">
         <v>51</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="S23" t="s">
+        <v>50</v>
+      </c>
       <c r="T23" t="s">
         <v>21</v>
       </c>
-      <c r="W23" s="44" t="s">
+      <c r="W23" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="X23" s="44"/>
+      <c r="X23" s="47"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10">
@@ -1850,8 +1878,8 @@
       <c r="T24" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10">
@@ -1884,40 +1912,40 @@
       <c r="T25" t="s">
         <v>21</v>
       </c>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-    </row>
-    <row r="26" spans="1:30" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+    </row>
+    <row r="26" spans="1:30" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10">
@@ -1938,12 +1966,18 @@
       <c r="J27" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
       <c r="L27" t="s">
         <v>26</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
       <c r="P27" t="s">
         <v>52</v>
       </c>
@@ -1953,10 +1987,10 @@
       <c r="T27" t="s">
         <v>21</v>
       </c>
-      <c r="W27" s="44" t="s">
+      <c r="W27" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="X27" s="44"/>
+      <c r="X27" s="47"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10">
@@ -1992,8 +2026,8 @@
       <c r="T28" t="s">
         <v>21</v>
       </c>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10">
@@ -2038,8 +2072,8 @@
       <c r="T29" t="s">
         <v>21</v>
       </c>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10">
@@ -2075,8 +2109,8 @@
       <c r="T30" t="s">
         <v>21</v>
       </c>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10">
@@ -2118,40 +2152,40 @@
       <c r="T31" t="s">
         <v>21</v>
       </c>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-    </row>
-    <row r="32" spans="1:30" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+    </row>
+    <row r="32" spans="1:30" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10">
@@ -2166,6 +2200,9 @@
       <c r="F33" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
       <c r="H33" t="s">
         <v>47</v>
       </c>
@@ -2178,6 +2215,9 @@
       <c r="N33" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
       <c r="P33" t="s">
         <v>53</v>
       </c>
@@ -2187,10 +2227,10 @@
       <c r="T33" t="s">
         <v>21</v>
       </c>
-      <c r="W33" s="44" t="s">
+      <c r="W33" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="X33" s="44"/>
+      <c r="X33" s="47"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10">
@@ -2226,8 +2266,8 @@
       <c r="T34" t="s">
         <v>21</v>
       </c>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10">
@@ -2263,10 +2303,10 @@
       <c r="T35" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="44" t="s">
+      <c r="W35" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="X35" s="44"/>
+      <c r="X35" s="47"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10">
@@ -2302,8 +2342,8 @@
       <c r="T36" t="s">
         <v>21</v>
       </c>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10">
@@ -2330,6 +2370,9 @@
       <c r="N37" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
       <c r="P37" t="s">
         <v>53</v>
       </c>
@@ -2339,11 +2382,11 @@
       <c r="T37" t="s">
         <v>21</v>
       </c>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-    </row>
-    <row r="38" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+    </row>
+    <row r="38" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" spans="1:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10">
         <v>43213</v>
       </c>
@@ -2356,6 +2399,9 @@
       <c r="F39" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
       <c r="H39" t="s">
         <v>38</v>
       </c>
@@ -2368,6 +2414,9 @@
       <c r="N39" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O39" s="44" t="s">
+        <v>97</v>
+      </c>
       <c r="P39" t="s">
         <v>21</v>
       </c>
@@ -2377,10 +2426,10 @@
       <c r="T39" t="s">
         <v>21</v>
       </c>
-      <c r="W39" s="44" t="s">
+      <c r="W39" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="X39" s="44"/>
+      <c r="X39" s="47"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10">
@@ -2416,8 +2465,8 @@
       <c r="T40" t="s">
         <v>21</v>
       </c>
-      <c r="W40" s="44"/>
-      <c r="X40" s="44"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10">
@@ -2453,8 +2502,8 @@
       <c r="T41" t="s">
         <v>21</v>
       </c>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="47"/>
       <c r="Y41" s="60" t="s">
         <v>69</v>
       </c>
@@ -2470,6 +2519,9 @@
       <c r="B42" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
       <c r="D42" t="s">
         <v>41</v>
       </c>
@@ -2482,6 +2534,9 @@
       <c r="J42" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="K42" t="s">
+        <v>40</v>
+      </c>
       <c r="L42" t="s">
         <v>42</v>
       </c>
@@ -2497,8 +2552,8 @@
       <c r="T42" t="s">
         <v>21</v>
       </c>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="47"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10">
@@ -2534,10 +2589,10 @@
       <c r="T43" t="s">
         <v>21</v>
       </c>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-    </row>
-    <row r="44" spans="1:30" s="55" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+    </row>
+    <row r="44" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="45" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="29">
         <v>43250</v>
@@ -2622,10 +2677,10 @@
       <c r="T47" t="s">
         <v>21</v>
       </c>
-      <c r="W47" s="44" t="s">
+      <c r="W47" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="X47" s="44"/>
+      <c r="X47" s="47"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10">
@@ -2661,8 +2716,8 @@
       <c r="T48" t="s">
         <v>21</v>
       </c>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47"/>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10">
@@ -2698,40 +2753,40 @@
       <c r="T49" t="s">
         <v>21</v>
       </c>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-    </row>
-    <row r="50" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="55"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="55"/>
-      <c r="Y50" s="55"/>
-      <c r="Z50" s="55"/>
-      <c r="AA50" s="55"/>
-      <c r="AB50" s="55"/>
-      <c r="AC50" s="55"/>
-      <c r="AD50" s="55"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47"/>
+    </row>
+    <row r="50" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="48"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="48"/>
+      <c r="W50" s="48"/>
+      <c r="X50" s="48"/>
+      <c r="Y50" s="48"/>
+      <c r="Z50" s="48"/>
+      <c r="AA50" s="48"/>
+      <c r="AB50" s="48"/>
+      <c r="AC50" s="48"/>
+      <c r="AD50" s="48"/>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10">
@@ -2740,37 +2795,52 @@
       <c r="B51" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
       <c r="D51" t="s">
         <v>45</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
       <c r="H51" t="s">
         <v>45</v>
       </c>
       <c r="J51" s="17" t="s">
         <v>24</v>
       </c>
+      <c r="K51" t="s">
+        <v>42</v>
+      </c>
       <c r="L51" t="s">
         <v>44</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O51" t="s">
+        <v>21</v>
+      </c>
       <c r="P51" t="s">
         <v>43</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="S51" t="s">
+        <v>21</v>
+      </c>
       <c r="T51" t="s">
         <v>43</v>
       </c>
-      <c r="W51" s="44" t="s">
+      <c r="W51" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="X51" s="44"/>
+      <c r="X51" s="47"/>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10">
@@ -2806,8 +2876,8 @@
       <c r="T52" t="s">
         <v>43</v>
       </c>
-      <c r="W52" s="44"/>
-      <c r="X52" s="44"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="47"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10">
@@ -2844,8 +2914,8 @@
       <c r="T53" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
     </row>
     <row r="54" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="31">
@@ -2897,37 +2967,37 @@
       <c r="R55" s="24"/>
       <c r="U55" s="26"/>
     </row>
-    <row r="56" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
-      <c r="X56" s="46"/>
-      <c r="Y56" s="46"/>
-      <c r="Z56" s="46"/>
-      <c r="AA56" s="46"/>
-      <c r="AB56" s="46"/>
-      <c r="AC56" s="46"/>
-      <c r="AD56" s="46"/>
+    <row r="56" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
+      <c r="W56" s="50"/>
+      <c r="X56" s="50"/>
+      <c r="Y56" s="50"/>
+      <c r="Z56" s="50"/>
+      <c r="AA56" s="50"/>
+      <c r="AB56" s="50"/>
+      <c r="AC56" s="50"/>
+      <c r="AD56" s="50"/>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10">
@@ -2936,6 +3006,9 @@
       <c r="B57" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
       <c r="D57" s="8" t="s">
         <v>55</v>
       </c>
@@ -2943,18 +3016,27 @@
       <c r="F57" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
       <c r="H57" t="s">
         <v>57</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>24</v>
       </c>
+      <c r="K57" t="s">
+        <v>44</v>
+      </c>
       <c r="L57" t="s">
         <v>60</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O57" t="s">
+        <v>43</v>
+      </c>
       <c r="P57" t="s">
         <v>64</v>
       </c>
@@ -2964,13 +3046,16 @@
       <c r="R57" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="S57" t="s">
+        <v>43</v>
+      </c>
       <c r="T57" t="s">
         <v>65</v>
       </c>
-      <c r="W57" s="44" t="s">
+      <c r="W57" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="X57" s="44"/>
+      <c r="X57" s="47"/>
       <c r="AD57" s="59" t="s">
         <v>68</v>
       </c>
@@ -3010,6 +3095,9 @@
       <c r="N58" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O58" t="s">
+        <v>64</v>
+      </c>
       <c r="P58" t="s">
         <v>61</v>
       </c>
@@ -3019,8 +3107,8 @@
       <c r="T58" t="s">
         <v>65</v>
       </c>
-      <c r="W58" s="44"/>
-      <c r="X58" s="44"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10">
@@ -3042,6 +3130,9 @@
       <c r="J59" s="19" t="s">
         <v>24</v>
       </c>
+      <c r="K59" t="s">
+        <v>60</v>
+      </c>
       <c r="L59" t="s">
         <v>59</v>
       </c>
@@ -3051,6 +3142,9 @@
       <c r="N59" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O59" t="s">
+        <v>61</v>
+      </c>
       <c r="P59" t="s">
         <v>62</v>
       </c>
@@ -3060,10 +3154,10 @@
       <c r="T59" t="s">
         <v>65</v>
       </c>
-      <c r="W59" s="44" t="s">
+      <c r="W59" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="X59" s="44"/>
+      <c r="X59" s="47"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10">
@@ -3085,23 +3179,32 @@
       <c r="J60" s="19" t="s">
         <v>24</v>
       </c>
+      <c r="K60" t="s">
+        <v>59</v>
+      </c>
       <c r="L60" t="s">
         <v>71</v>
       </c>
       <c r="N60" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
       <c r="P60" t="s">
         <v>72</v>
       </c>
       <c r="R60" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="S60" t="s">
+        <v>65</v>
+      </c>
       <c r="T60" t="s">
         <v>73</v>
       </c>
-      <c r="W60" s="44"/>
-      <c r="X60" s="44"/>
+      <c r="W60" s="47"/>
+      <c r="X60" s="47"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10">
@@ -3135,40 +3238,40 @@
       <c r="T61" t="s">
         <v>73</v>
       </c>
-      <c r="W61" s="44"/>
-      <c r="X61" s="44"/>
-    </row>
-    <row r="62" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="55"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="55"/>
-      <c r="AA62" s="55"/>
-      <c r="AB62" s="55"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="55"/>
+      <c r="W61" s="47"/>
+      <c r="X61" s="47"/>
+    </row>
+    <row r="62" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="48"/>
+      <c r="U62" s="48"/>
+      <c r="V62" s="48"/>
+      <c r="W62" s="48"/>
+      <c r="X62" s="48"/>
+      <c r="Y62" s="48"/>
+      <c r="Z62" s="48"/>
+      <c r="AA62" s="48"/>
+      <c r="AB62" s="48"/>
+      <c r="AC62" s="48"/>
+      <c r="AD62" s="48"/>
     </row>
     <row r="63" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="29">
@@ -3187,6 +3290,9 @@
       <c r="B65" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C65" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="D65" s="41" t="s">
         <v>84</v>
       </c>
@@ -3194,12 +3300,18 @@
       <c r="F65" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="G65" t="s">
+        <v>57</v>
+      </c>
       <c r="H65" t="s">
         <v>75</v>
       </c>
       <c r="J65" t="s">
         <v>24</v>
       </c>
+      <c r="K65" t="s">
+        <v>71</v>
+      </c>
       <c r="L65" t="s">
         <v>78</v>
       </c>
@@ -3209,26 +3321,32 @@
       <c r="N65" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O65" t="s">
+        <v>72</v>
+      </c>
       <c r="P65" t="s">
         <v>81</v>
       </c>
       <c r="R65" t="s">
         <v>24</v>
       </c>
+      <c r="S65" t="s">
+        <v>73</v>
+      </c>
       <c r="T65" t="s">
         <v>82</v>
       </c>
-      <c r="W65" s="44" t="s">
+      <c r="W65" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="X65" s="44"/>
-      <c r="Y65" s="45" t="s">
+      <c r="X65" s="47"/>
+      <c r="Y65" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="Z65" s="45"/>
-      <c r="AA65" s="45"/>
-      <c r="AB65" s="45"/>
-      <c r="AC65" s="45"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
+      <c r="AB65" s="61"/>
+      <c r="AC65" s="61"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10">
@@ -3265,8 +3383,8 @@
       <c r="T66" t="s">
         <v>82</v>
       </c>
-      <c r="W66" s="44"/>
-      <c r="X66" s="44"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10">
@@ -3303,31 +3421,31 @@
       <c r="T67" t="s">
         <v>82</v>
       </c>
-      <c r="W67" s="44"/>
-      <c r="X67" s="44"/>
-    </row>
-    <row r="68" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="55"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="55"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="55"/>
-      <c r="U68" s="55"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="47"/>
+    </row>
+    <row r="68" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="48"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="48"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="48"/>
+      <c r="U68" s="48"/>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10">
@@ -3336,6 +3454,9 @@
       <c r="B69" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C69" s="41" t="s">
+        <v>84</v>
+      </c>
       <c r="D69" s="41" t="s">
         <v>84</v>
       </c>
@@ -3343,12 +3464,16 @@
       <c r="F69" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G69" s="44"/>
       <c r="H69" t="s">
         <v>75</v>
       </c>
       <c r="J69" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="K69" t="s">
+        <v>78</v>
+      </c>
       <c r="L69" t="s">
         <v>77</v>
       </c>
@@ -3364,22 +3489,22 @@
       <c r="T69" t="s">
         <v>82</v>
       </c>
-      <c r="W69" s="44" t="s">
+      <c r="W69" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="X69" s="44"/>
-      <c r="AD69" s="45" t="s">
+      <c r="X69" s="47"/>
+      <c r="AD69" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AE69" s="45"/>
-      <c r="AF69" s="45"/>
-      <c r="AG69" s="45"/>
-      <c r="AH69" s="45"/>
-      <c r="AI69" s="45"/>
-      <c r="AJ69" s="45"/>
-      <c r="AK69" s="45"/>
-      <c r="AL69" s="45"/>
-      <c r="AM69" s="45"/>
+      <c r="AE69" s="61"/>
+      <c r="AF69" s="61"/>
+      <c r="AG69" s="61"/>
+      <c r="AH69" s="61"/>
+      <c r="AI69" s="61"/>
+      <c r="AJ69" s="61"/>
+      <c r="AK69" s="61"/>
+      <c r="AL69" s="61"/>
+      <c r="AM69" s="61"/>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10">
@@ -3416,8 +3541,8 @@
       <c r="T70" t="s">
         <v>82</v>
       </c>
-      <c r="W70" s="44"/>
-      <c r="X70" s="44"/>
+      <c r="W70" s="47"/>
+      <c r="X70" s="47"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10">
@@ -3445,17 +3570,23 @@
       <c r="N71" s="42" t="s">
         <v>24</v>
       </c>
+      <c r="O71" t="s">
+        <v>81</v>
+      </c>
       <c r="P71" t="s">
         <v>80</v>
       </c>
       <c r="R71" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="S71" t="s">
+        <v>82</v>
+      </c>
       <c r="T71" t="s">
         <v>83</v>
       </c>
-      <c r="W71" s="44"/>
-      <c r="X71" s="44"/>
+      <c r="W71" s="47"/>
+      <c r="X71" s="47"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10">
@@ -3464,6 +3595,9 @@
       <c r="B72" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C72" s="41" t="s">
+        <v>84</v>
+      </c>
       <c r="D72" s="43" t="s">
         <v>85</v>
       </c>
@@ -3477,6 +3611,9 @@
       <c r="J72" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="K72" t="s">
+        <v>77</v>
+      </c>
       <c r="L72" t="s">
         <v>78</v>
       </c>
@@ -3492,8 +3629,8 @@
       <c r="T72" t="s">
         <v>83</v>
       </c>
-      <c r="W72" s="44"/>
-      <c r="X72" s="44"/>
+      <c r="W72" s="47"/>
+      <c r="X72" s="47"/>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10">
@@ -3530,8 +3667,8 @@
       <c r="T73" t="s">
         <v>83</v>
       </c>
-      <c r="W73" s="44"/>
-      <c r="X73" s="44"/>
+      <c r="W73" s="47"/>
+      <c r="X73" s="47"/>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="D74" s="41"/>
@@ -3548,6 +3685,9 @@
       <c r="B75" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C75" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="D75" s="43" t="s">
         <v>87</v>
       </c>
@@ -3555,12 +3695,18 @@
       <c r="F75" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G75" t="s">
+        <v>75</v>
+      </c>
       <c r="H75" t="s">
         <v>90</v>
       </c>
       <c r="J75" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="K75" t="s">
+        <v>78</v>
+      </c>
       <c r="L75" t="s">
         <v>91</v>
       </c>
@@ -3576,13 +3722,16 @@
       <c r="R75" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="S75" t="s">
+        <v>83</v>
+      </c>
       <c r="T75" t="s">
         <v>89</v>
       </c>
-      <c r="W75" s="44" t="s">
+      <c r="W75" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="X75" s="44"/>
+      <c r="X75" s="47"/>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10">
@@ -3610,6 +3759,9 @@
       <c r="N76" s="42" t="s">
         <v>24</v>
       </c>
+      <c r="O76" t="s">
+        <v>86</v>
+      </c>
       <c r="P76" t="s">
         <v>89</v>
       </c>
@@ -3619,8 +3771,8 @@
       <c r="T76" t="s">
         <v>89</v>
       </c>
-      <c r="W76" s="44"/>
-      <c r="X76" s="44"/>
+      <c r="W76" s="47"/>
+      <c r="X76" s="47"/>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10">
@@ -3657,8 +3809,8 @@
       <c r="T77" t="s">
         <v>89</v>
       </c>
-      <c r="W77" s="44"/>
-      <c r="X77" s="44"/>
+      <c r="W77" s="47"/>
+      <c r="X77" s="47"/>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10">
@@ -3695,8 +3847,8 @@
       <c r="T78" t="s">
         <v>89</v>
       </c>
-      <c r="W78" s="44"/>
-      <c r="X78" s="44"/>
+      <c r="W78" s="47"/>
+      <c r="X78" s="47"/>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10">
@@ -3718,6 +3870,9 @@
       <c r="J79" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="K79" t="s">
+        <v>91</v>
+      </c>
       <c r="L79" t="s">
         <v>92</v>
       </c>
@@ -3733,8 +3888,8 @@
       <c r="T79" t="s">
         <v>89</v>
       </c>
-      <c r="W79" s="44"/>
-      <c r="X79" s="44"/>
+      <c r="W79" s="47"/>
+      <c r="X79" s="47"/>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" s="41"/>
@@ -3764,6 +3919,9 @@
       <c r="J81" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="K81" t="s">
+        <v>92</v>
+      </c>
       <c r="L81" t="s">
         <v>78</v>
       </c>
@@ -3779,10 +3937,10 @@
       <c r="T81" t="s">
         <v>89</v>
       </c>
-      <c r="W81" s="44" t="s">
+      <c r="W81" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="X81" s="44"/>
+      <c r="X81" s="47"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10">
@@ -3819,8 +3977,8 @@
       <c r="T82" t="s">
         <v>89</v>
       </c>
-      <c r="W82" s="44"/>
-      <c r="X82" s="44"/>
+      <c r="W82" s="47"/>
+      <c r="X82" s="47"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10">
@@ -3857,8 +4015,8 @@
       <c r="T83" t="s">
         <v>89</v>
       </c>
-      <c r="W83" s="44"/>
-      <c r="X83" s="44"/>
+      <c r="W83" s="47"/>
+      <c r="X83" s="47"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10">
@@ -3895,8 +4053,8 @@
       <c r="T84" t="s">
         <v>89</v>
       </c>
-      <c r="W84" s="44"/>
-      <c r="X84" s="44"/>
+      <c r="W84" s="47"/>
+      <c r="X84" s="47"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10">
@@ -3933,8 +4091,8 @@
       <c r="T85" t="s">
         <v>89</v>
       </c>
-      <c r="W85" s="44"/>
-      <c r="X85" s="44"/>
+      <c r="W85" s="47"/>
+      <c r="X85" s="47"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10"/>
@@ -3950,6 +4108,9 @@
       <c r="B87" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C87" s="43" t="s">
+        <v>87</v>
+      </c>
       <c r="D87" s="43" t="s">
         <v>85</v>
       </c>
@@ -3957,31 +4118,43 @@
       <c r="F87" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G87" t="s">
+        <v>90</v>
+      </c>
       <c r="H87" t="s">
         <v>93</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="K87" t="s">
+        <v>78</v>
+      </c>
       <c r="L87" t="s">
         <v>96</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O87" t="s">
+        <v>89</v>
+      </c>
       <c r="P87" t="s">
         <v>94</v>
       </c>
       <c r="R87" t="s">
         <v>24</v>
       </c>
+      <c r="S87" t="s">
+        <v>89</v>
+      </c>
       <c r="T87" t="s">
         <v>94</v>
       </c>
-      <c r="W87" s="44" t="s">
+      <c r="W87" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="X87" s="44"/>
+      <c r="X87" s="47"/>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10">
@@ -3997,29 +4170,41 @@
       <c r="F88" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
       <c r="H88" t="s">
         <v>94</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="K88" t="s">
+        <v>96</v>
+      </c>
       <c r="L88" t="s">
         <v>94</v>
       </c>
       <c r="N88" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O88" t="s">
+        <v>94</v>
+      </c>
       <c r="P88" t="s">
         <v>95</v>
       </c>
       <c r="R88" t="s">
         <v>24</v>
       </c>
+      <c r="S88" t="s">
+        <v>94</v>
+      </c>
       <c r="T88" t="s">
         <v>94</v>
       </c>
-      <c r="W88" s="44"/>
-      <c r="X88" s="44"/>
+      <c r="W88" s="47"/>
+      <c r="X88" s="47"/>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10">
@@ -4028,6 +4213,9 @@
       <c r="B89" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C89" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="D89" s="43" t="s">
         <v>85</v>
       </c>
@@ -4035,18 +4223,27 @@
       <c r="F89" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
       <c r="H89" t="s">
         <v>94</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="K89" t="s">
+        <v>94</v>
+      </c>
       <c r="L89" t="s">
         <v>94</v>
       </c>
       <c r="N89" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="O89" t="s">
+        <v>95</v>
+      </c>
       <c r="P89" t="s">
         <v>95</v>
       </c>
@@ -4056,8 +4253,8 @@
       <c r="T89" t="s">
         <v>95</v>
       </c>
-      <c r="W89" s="44"/>
-      <c r="X89" s="44"/>
+      <c r="W89" s="47"/>
+      <c r="X89" s="47"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="D90" s="41"/>
@@ -4779,6 +4976,9 @@
     <mergeCell ref="W69:X73"/>
     <mergeCell ref="W65:X67"/>
     <mergeCell ref="Y65:AC65"/>
+    <mergeCell ref="W75:X79"/>
+    <mergeCell ref="W81:X85"/>
+    <mergeCell ref="AD69:AM69"/>
     <mergeCell ref="W57:X58"/>
     <mergeCell ref="W51:X53"/>
     <mergeCell ref="W47:X49"/>
@@ -4790,19 +4990,6 @@
     <mergeCell ref="A38:XFD38"/>
     <mergeCell ref="AD57:AM57"/>
     <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="AD1:AM2"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="W9:X13"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="W75:X79"/>
-    <mergeCell ref="W81:X85"/>
-    <mergeCell ref="AD69:AM69"/>
-    <mergeCell ref="A14:XFD14"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
@@ -4815,6 +5002,16 @@
     <mergeCell ref="W23:X25"/>
     <mergeCell ref="W18:X19"/>
     <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="AD1:AM2"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="W9:X13"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B55 F1:F55 J1:J55 N1:N55 R1:R55 J57:J61 N57:N61 R57:R61 F57:F61 B57:B61 J65:J67 N65:N67 R65:R67 B65:B67 F65:F67 B69:B1048576 F69:F1048576 J69:J1048576 N69:N1048576 R69:R1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
